--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12280"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="579">
   <si>
     <t>id</t>
   </si>
@@ -3433,6 +3433,46 @@
 祝你们有美好的一天 :)
 ——泰勒</t>
   </si>
+  <si>
+    <t>US-11542794</t>
+  </si>
+  <si>
+    <t>Hello from San Francisco!
+We have many popular coffee brands here. 
+My favorites are Linea and Sightglass. 
+I hope you are having a good summer!
+- Kayla</t>
+  </si>
+  <si>
+    <t>来自旧金山的问候！
+这里有许多受欢迎的咖啡品牌。
+我最喜欢的是 Linea 和 Sightglass。
+希望你过一个愉快的夏天！
+—— 凯拉</t>
+  </si>
+  <si>
+    <t>PH-201724</t>
+  </si>
+  <si>
+    <t>Hi Arthur and Xiaoxiao,
+Greetings from the Philippines! My name is Janver. I got this ad card recently from Tokyo, 
+specifically in Harajuku. I hope you find its bike theme inspirational as you work toward your 100-ride goal. 
+I don't know how to ride a bike myself—maybe it's time I start learning!
+Sending you good luck from 1,148 km away!
+"KAYA MO 'YAN!" (You can do it! in Filipino)
+- JANVER
+7/22/2025</t>
+  </si>
+  <si>
+    <t>嗨，Arthur 和 Xiaoxiao！
+来自菲律宾的问候！我叫 Janver。我最近从东京收到了这张广告卡，
+具体来说是在原宿。希望这张自行车主题的广告卡能激励你，帮助你实现 100 次骑行的目标。
+我自己不会骑自行车——也许是时候开始学了！
+在 1148 公里之外祝你好运！
+“KAYA MO 'YAN！”（你可以做到！）
+- JANVER
+2025 年 7 月 22 日</t>
+  </si>
 </sst>
 </file>
 
@@ -3611,19 +3651,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3641,7 +3681,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4479,20 +4519,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
+      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2583333333333" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -5091,7 +5131,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="70" hidden="1" spans="1:3">
+    <row r="53" ht="67.5" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -5102,7 +5142,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="98" hidden="1" spans="1:3">
+    <row r="54" ht="94.5" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -5113,7 +5153,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="112" hidden="1" spans="1:3">
+    <row r="55" ht="108" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -5124,7 +5164,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="70" hidden="1" spans="1:3">
+    <row r="56" ht="67.5" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -5135,7 +5175,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="98" hidden="1" spans="1:3">
+    <row r="57" ht="94.5" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -5146,7 +5186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="70" hidden="1" spans="1:3">
+    <row r="58" ht="67.5" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -5157,7 +5197,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="350" hidden="1" spans="1:3">
+    <row r="59" ht="337.5" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -5168,7 +5208,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="168" hidden="1" spans="1:3">
+    <row r="60" ht="162" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -5179,7 +5219,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="70" hidden="1" spans="1:3">
+    <row r="61" ht="67.5" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -5190,7 +5230,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="98" hidden="1" spans="1:3">
+    <row r="62" ht="94.5" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5201,7 +5241,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="126" hidden="1" spans="1:3">
+    <row r="63" ht="121.5" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5212,7 +5252,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="140" hidden="1" spans="1:3">
+    <row r="64" ht="135" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -5223,7 +5263,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="56" hidden="1" spans="1:3">
+    <row r="65" ht="54" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5234,7 +5274,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="252" spans="1:5">
+    <row r="66" ht="243" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5251,7 +5291,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="126" hidden="1" spans="1:3">
+    <row r="67" ht="121.5" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5262,7 +5302,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="98" hidden="1" spans="1:3">
+    <row r="68" ht="94.5" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5273,7 +5313,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="154" hidden="1" spans="1:3">
+    <row r="69" ht="148.5" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5284,7 +5324,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="56" hidden="1" spans="1:3">
+    <row r="70" ht="54" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5295,7 +5335,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="42" hidden="1" spans="1:3">
+    <row r="71" ht="40.5" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5306,7 +5346,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="98" hidden="1" spans="1:3">
+    <row r="72" ht="94.5" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5317,7 +5357,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="98" hidden="1" spans="1:3">
+    <row r="73" ht="94.5" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5328,7 +5368,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="70" hidden="1" spans="1:3">
+    <row r="74" ht="67.5" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5339,7 +5379,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="70" hidden="1" spans="1:3">
+    <row r="75" ht="67.5" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5350,7 +5390,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="42" hidden="1" spans="1:3">
+    <row r="76" ht="40.5" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5361,7 +5401,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="28" hidden="1" spans="1:3">
+    <row r="77" ht="27" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5372,7 +5412,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="224" hidden="1" spans="1:3">
+    <row r="78" ht="216" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5383,7 +5423,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="56" hidden="1" spans="1:3">
+    <row r="79" ht="54" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5394,7 +5434,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="98" hidden="1" spans="1:3">
+    <row r="80" ht="94.5" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5405,7 +5445,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="70" hidden="1" spans="1:3">
+    <row r="81" ht="67.5" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5416,7 +5456,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="154" hidden="1" spans="1:3">
+    <row r="82" ht="148.5" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5427,7 +5467,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="28" hidden="1" spans="1:3">
+    <row r="83" ht="27" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5438,7 +5478,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="112" spans="1:5">
+    <row r="84" ht="108" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5455,7 +5495,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="364" hidden="1" spans="1:3">
+    <row r="85" ht="351" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5466,7 +5506,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="112" hidden="1" spans="1:3">
+    <row r="86" ht="108" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5477,7 +5517,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="56" hidden="1" spans="1:3">
+    <row r="87" ht="54" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5488,7 +5528,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="84" hidden="1" spans="1:3">
+    <row r="88" ht="81" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5499,7 +5539,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="56" hidden="1" spans="1:3">
+    <row r="89" ht="54" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5510,7 +5550,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="112" hidden="1" spans="1:3">
+    <row r="90" ht="108" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5521,7 +5561,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="112" hidden="1" spans="1:3">
+    <row r="91" ht="108" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5532,7 +5572,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="84" hidden="1" spans="1:3">
+    <row r="92" ht="81" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5543,7 +5583,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="84" hidden="1" spans="1:3">
+    <row r="93" ht="81" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5554,7 +5594,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="100.5" hidden="1" spans="1:3">
+    <row r="94" ht="97.5" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5565,7 +5605,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="84" hidden="1" spans="1:3">
+    <row r="95" ht="81" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5576,7 +5616,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="98" hidden="1" spans="1:3">
+    <row r="96" ht="94.5" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5587,7 +5627,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="56" hidden="1" spans="1:3">
+    <row r="97" ht="54" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5598,7 +5638,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="70" hidden="1" spans="1:3">
+    <row r="98" ht="67.5" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5609,7 +5649,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="84" hidden="1" spans="1:3">
+    <row r="99" ht="81" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5620,7 +5660,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="100.5" hidden="1" spans="1:3">
+    <row r="100" ht="97.5" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5631,7 +5671,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="98" hidden="1" spans="1:3">
+    <row r="101" ht="94.5" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5642,7 +5682,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="70" hidden="1" spans="1:3">
+    <row r="102" ht="67.5" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5653,7 +5693,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="42" hidden="1" spans="1:3">
+    <row r="103" ht="40.5" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5664,7 +5704,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="56" hidden="1" spans="1:3">
+    <row r="104" ht="54" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5675,7 +5715,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="84" hidden="1" spans="1:3">
+    <row r="105" ht="81" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5686,7 +5726,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="28" hidden="1" spans="1:3">
+    <row r="106" ht="27" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5697,7 +5737,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="70" hidden="1" spans="1:3">
+    <row r="107" ht="67.5" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5708,7 +5748,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="364" spans="1:5">
+    <row r="108" ht="337.5" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5725,7 +5765,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="98" hidden="1" spans="1:3">
+    <row r="109" ht="81" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5736,7 +5776,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="28" hidden="1" spans="1:3">
+    <row r="110" ht="27" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5747,7 +5787,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="56" hidden="1" spans="1:3">
+    <row r="111" ht="54" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5758,7 +5798,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="98" hidden="1" spans="1:3">
+    <row r="112" ht="94.5" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5769,7 +5809,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="84" hidden="1" spans="1:3">
+    <row r="113" ht="81" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -5780,7 +5820,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="42" hidden="1" spans="1:3">
+    <row r="114" ht="40.5" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -5791,7 +5831,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="84" hidden="1" spans="1:3">
+    <row r="115" ht="81" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -5802,7 +5842,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="84" hidden="1" spans="1:3">
+    <row r="116" ht="81" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -5813,7 +5853,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="112" hidden="1" spans="1:3">
+    <row r="117" ht="94.5" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -5824,7 +5864,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="98" hidden="1" spans="1:3">
+    <row r="118" ht="94.5" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5835,7 +5875,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="196" hidden="1" spans="1:3">
+    <row r="119" ht="189" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -5846,7 +5886,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="126" hidden="1" spans="1:3">
+    <row r="120" ht="121.5" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -5857,7 +5897,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="56" hidden="1" spans="1:3">
+    <row r="121" ht="54" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -5868,7 +5908,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="98" hidden="1" spans="1:3">
+    <row r="122" ht="94.5" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -5879,7 +5919,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="98" hidden="1" spans="1:3">
+    <row r="123" ht="94.5" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -5890,7 +5930,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:5">
+    <row r="124" ht="216" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -5907,7 +5947,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="140" hidden="1" spans="1:3">
+    <row r="125" ht="135" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -5918,7 +5958,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="98" hidden="1" spans="1:3">
+    <row r="126" ht="94.5" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -5929,7 +5969,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="126" hidden="1" spans="1:3">
+    <row r="127" ht="121.5" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -5940,7 +5980,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="56" hidden="1" spans="1:3">
+    <row r="128" ht="54" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -5951,7 +5991,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="98" hidden="1" spans="1:3">
+    <row r="129" ht="94.5" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -5962,7 +6002,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="70" hidden="1" spans="1:3">
+    <row r="130" ht="67.5" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -5973,7 +6013,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="112" hidden="1" spans="1:3">
+    <row r="131" ht="108" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -5984,7 +6024,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="112" hidden="1" spans="1:3">
+    <row r="132" ht="108" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -5995,7 +6035,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="84" hidden="1" spans="1:3">
+    <row r="133" ht="81" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -6006,7 +6046,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="98" hidden="1" spans="1:3">
+    <row r="134" ht="94.5" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -6017,7 +6057,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="84" hidden="1" spans="1:3">
+    <row r="135" ht="81" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -6028,7 +6068,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="98" hidden="1" spans="1:3">
+    <row r="136" ht="94.5" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -6039,7 +6079,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="98" hidden="1" spans="1:3">
+    <row r="137" ht="94.5" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -6050,7 +6090,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="126" hidden="1" spans="1:3">
+    <row r="138" ht="121.5" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -6061,7 +6101,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="70" hidden="1" spans="1:3">
+    <row r="139" ht="67.5" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -6072,7 +6112,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="56" hidden="1" spans="1:3">
+    <row r="140" ht="54" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -6083,7 +6123,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="84" hidden="1" spans="1:3">
+    <row r="141" ht="81" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -6094,7 +6134,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="42" hidden="1" spans="1:3">
+    <row r="142" ht="40.5" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -6105,7 +6145,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="56" hidden="1" spans="1:3">
+    <row r="143" ht="54" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -6116,7 +6156,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="56" hidden="1" spans="1:3">
+    <row r="144" ht="54" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -6127,7 +6167,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="98" hidden="1" spans="1:3">
+    <row r="145" ht="94.5" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -6138,7 +6178,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="56" hidden="1" spans="1:3">
+    <row r="146" ht="40.5" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -6160,7 +6200,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="210" hidden="1" spans="1:3">
+    <row r="148" ht="202.5" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -6171,7 +6211,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="154" hidden="1" spans="1:3">
+    <row r="149" ht="148.5" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -6182,7 +6222,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="98" hidden="1" spans="1:3">
+    <row r="150" ht="94.5" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -6193,7 +6233,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="98" hidden="1" spans="1:3">
+    <row r="151" ht="94.5" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -6204,7 +6244,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="126" hidden="1" spans="1:3">
+    <row r="152" ht="121.5" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -6215,7 +6255,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="224" hidden="1" spans="1:3">
+    <row r="153" ht="216" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -6226,7 +6266,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="140" hidden="1" spans="1:3">
+    <row r="154" ht="135" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -6237,7 +6277,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="196" hidden="1" spans="1:3">
+    <row r="155" ht="189" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -6248,7 +6288,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="112" hidden="1" spans="1:3">
+    <row r="156" ht="108" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -6259,7 +6299,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="70" hidden="1" spans="1:3">
+    <row r="157" ht="67.5" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6270,7 +6310,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="98" hidden="1" spans="1:3">
+    <row r="158" ht="94.5" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6281,7 +6321,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="70" hidden="1" spans="1:3">
+    <row r="159" ht="67.5" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6292,7 +6332,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="42" hidden="1" spans="1:3">
+    <row r="160" ht="40.5" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6303,7 +6343,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="84" hidden="1" spans="1:3">
+    <row r="161" ht="81" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6314,7 +6354,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="112" hidden="1" spans="1:3">
+    <row r="162" ht="108" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6325,7 +6365,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="126" spans="1:5">
+    <row r="163" ht="121.5" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6342,7 +6382,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="56" hidden="1" spans="1:3">
+    <row r="164" ht="54" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6353,7 +6393,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="126" hidden="1" spans="1:3">
+    <row r="165" ht="121.5" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6364,7 +6404,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="112" hidden="1" spans="1:3">
+    <row r="166" ht="108" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6375,7 +6415,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="280" hidden="1" spans="1:5">
+    <row r="167" ht="270" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6386,7 +6426,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="238" hidden="1" spans="1:5">
+    <row r="168" ht="216" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6397,7 +6437,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="98" spans="1:3">
+    <row r="169" ht="94.5" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6408,7 +6448,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="112" spans="1:3">
+    <row r="170" ht="108" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6419,7 +6459,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" ht="56" spans="1:3">
+    <row r="171" ht="54" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>525</v>
       </c>
@@ -6430,7 +6470,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" ht="126" spans="1:3">
+    <row r="172" ht="121.5" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>528</v>
       </c>
@@ -6441,7 +6481,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="173" ht="140" spans="1:3">
+    <row r="173" ht="135" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -6452,7 +6492,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="174" ht="112" spans="1:3">
+    <row r="174" ht="108" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -6463,7 +6503,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="175" ht="98" spans="1:3">
+    <row r="175" ht="94.5" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -6474,7 +6514,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" ht="126" spans="1:3">
+    <row r="176" ht="121.5" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>540</v>
       </c>
@@ -6485,7 +6525,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" ht="84" spans="1:3">
+    <row r="177" ht="81" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>543</v>
       </c>
@@ -6496,7 +6536,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="178" ht="154" spans="1:3">
+    <row r="178" ht="148.5" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>546</v>
       </c>
@@ -6507,7 +6547,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="179" ht="42" spans="1:3">
+    <row r="179" ht="40.5" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>549</v>
       </c>
@@ -6518,7 +6558,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="180" ht="28" spans="1:3">
+    <row r="180" ht="27" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>552</v>
       </c>
@@ -6529,7 +6569,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" ht="56" spans="1:3">
+    <row r="181" ht="54" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>555</v>
       </c>
@@ -6540,7 +6580,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="182" ht="126" spans="1:3">
+    <row r="182" ht="121.5" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>558</v>
       </c>
@@ -6551,7 +6591,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="183" ht="154" spans="1:3">
+    <row r="183" ht="150" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>561</v>
       </c>
@@ -6562,7 +6602,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="184" ht="126" spans="1:3">
+    <row r="184" ht="121.5" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>564</v>
       </c>
@@ -6573,7 +6613,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="185" ht="98" spans="1:3">
+    <row r="185" ht="94.5" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>567</v>
       </c>
@@ -6584,7 +6624,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="186" ht="112" spans="1:3">
+    <row r="186" ht="108" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>570</v>
       </c>
@@ -6595,8 +6635,30 @@
         <v>572</v>
       </c>
     </row>
+    <row r="187" ht="81" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="188" ht="162" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E179" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E186" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="582">
   <si>
     <t>id</t>
   </si>
@@ -3473,6 +3473,23 @@
 - JANVER
 2025 年 7 月 22 日</t>
   </si>
+  <si>
+    <t>NL-6019290</t>
+  </si>
+  <si>
+    <t>Moi -&gt; Hello,
+We are Lies and Wim and love dogs. 
+We wish you all the best. 
+Kind regards,
+Lies and Wim</t>
+  </si>
+  <si>
+    <t>你好！
+我们是Lies和Wim，我们喜欢狗。
+祝您一切顺利。
+此致敬礼，
+Lies和Wim</t>
+  </si>
 </sst>
 </file>
 
@@ -3650,8 +3667,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3662,32 +3691,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4519,20 +4536,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
+      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -5131,7 +5148,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="67.5" hidden="1" spans="1:3">
+    <row r="53" ht="70" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -5142,7 +5159,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="94.5" hidden="1" spans="1:3">
+    <row r="54" ht="98" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -5153,7 +5170,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="108" hidden="1" spans="1:3">
+    <row r="55" ht="112" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -5164,7 +5181,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="67.5" hidden="1" spans="1:3">
+    <row r="56" ht="70" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -5175,7 +5192,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="94.5" hidden="1" spans="1:3">
+    <row r="57" ht="98" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -5186,7 +5203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="67.5" hidden="1" spans="1:3">
+    <row r="58" ht="70" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -5197,7 +5214,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="337.5" hidden="1" spans="1:3">
+    <row r="59" ht="350" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -5208,7 +5225,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="162" hidden="1" spans="1:3">
+    <row r="60" ht="168" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -5219,7 +5236,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="67.5" hidden="1" spans="1:3">
+    <row r="61" ht="70" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -5230,7 +5247,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="94.5" hidden="1" spans="1:3">
+    <row r="62" ht="98" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5241,7 +5258,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="121.5" hidden="1" spans="1:3">
+    <row r="63" ht="126" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5252,7 +5269,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="135" hidden="1" spans="1:3">
+    <row r="64" ht="140" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -5263,7 +5280,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="54" hidden="1" spans="1:3">
+    <row r="65" ht="56" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5274,7 +5291,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="243" spans="1:5">
+    <row r="66" ht="252" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5291,7 +5308,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="121.5" hidden="1" spans="1:3">
+    <row r="67" ht="126" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5302,7 +5319,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="94.5" hidden="1" spans="1:3">
+    <row r="68" ht="98" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5313,7 +5330,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="148.5" hidden="1" spans="1:3">
+    <row r="69" ht="154" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5324,7 +5341,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="54" hidden="1" spans="1:3">
+    <row r="70" ht="56" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5335,7 +5352,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="40.5" hidden="1" spans="1:3">
+    <row r="71" ht="42" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5346,7 +5363,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="94.5" hidden="1" spans="1:3">
+    <row r="72" ht="98" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5357,7 +5374,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="94.5" hidden="1" spans="1:3">
+    <row r="73" ht="98" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5368,7 +5385,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="67.5" hidden="1" spans="1:3">
+    <row r="74" ht="70" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5379,7 +5396,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="67.5" hidden="1" spans="1:3">
+    <row r="75" ht="70" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5390,7 +5407,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="40.5" hidden="1" spans="1:3">
+    <row r="76" ht="42" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5401,7 +5418,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="27" hidden="1" spans="1:3">
+    <row r="77" ht="28" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5412,7 +5429,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="216" hidden="1" spans="1:3">
+    <row r="78" ht="224" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5423,7 +5440,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="54" hidden="1" spans="1:3">
+    <row r="79" ht="56" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5434,7 +5451,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="94.5" hidden="1" spans="1:3">
+    <row r="80" ht="98" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5445,7 +5462,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="67.5" hidden="1" spans="1:3">
+    <row r="81" ht="70" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5456,7 +5473,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="148.5" hidden="1" spans="1:3">
+    <row r="82" ht="154" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5467,7 +5484,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="27" hidden="1" spans="1:3">
+    <row r="83" ht="28" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5478,7 +5495,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="108" spans="1:5">
+    <row r="84" ht="112" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5495,7 +5512,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="351" hidden="1" spans="1:3">
+    <row r="85" ht="364" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5506,7 +5523,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="108" hidden="1" spans="1:3">
+    <row r="86" ht="112" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5517,7 +5534,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="54" hidden="1" spans="1:3">
+    <row r="87" ht="56" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5528,7 +5545,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="81" hidden="1" spans="1:3">
+    <row r="88" ht="84" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5539,7 +5556,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="54" hidden="1" spans="1:3">
+    <row r="89" ht="56" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5550,7 +5567,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="108" hidden="1" spans="1:3">
+    <row r="90" ht="112" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5561,7 +5578,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="108" hidden="1" spans="1:3">
+    <row r="91" ht="112" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5572,7 +5589,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="81" hidden="1" spans="1:3">
+    <row r="92" ht="84" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5583,7 +5600,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="81" hidden="1" spans="1:3">
+    <row r="93" ht="84" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5594,7 +5611,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="97.5" hidden="1" spans="1:3">
+    <row r="94" ht="100.5" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5605,7 +5622,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="81" hidden="1" spans="1:3">
+    <row r="95" ht="84" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5616,7 +5633,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="94.5" hidden="1" spans="1:3">
+    <row r="96" ht="98" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5627,7 +5644,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="54" hidden="1" spans="1:3">
+    <row r="97" ht="56" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5638,7 +5655,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="67.5" hidden="1" spans="1:3">
+    <row r="98" ht="70" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5649,7 +5666,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="81" hidden="1" spans="1:3">
+    <row r="99" ht="84" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5660,7 +5677,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="97.5" hidden="1" spans="1:3">
+    <row r="100" ht="100.5" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5671,7 +5688,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="94.5" hidden="1" spans="1:3">
+    <row r="101" ht="98" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5682,7 +5699,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="67.5" hidden="1" spans="1:3">
+    <row r="102" ht="70" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5693,7 +5710,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="40.5" hidden="1" spans="1:3">
+    <row r="103" ht="42" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5704,7 +5721,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="54" hidden="1" spans="1:3">
+    <row r="104" ht="56" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5715,7 +5732,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="81" hidden="1" spans="1:3">
+    <row r="105" ht="84" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5726,7 +5743,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="27" hidden="1" spans="1:3">
+    <row r="106" ht="28" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5737,7 +5754,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="67.5" hidden="1" spans="1:3">
+    <row r="107" ht="70" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5748,7 +5765,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="337.5" spans="1:5">
+    <row r="108" ht="364" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5765,7 +5782,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="81" hidden="1" spans="1:3">
+    <row r="109" ht="98" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5776,7 +5793,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="27" hidden="1" spans="1:3">
+    <row r="110" ht="28" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5787,7 +5804,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="54" hidden="1" spans="1:3">
+    <row r="111" ht="56" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5798,7 +5815,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="94.5" hidden="1" spans="1:3">
+    <row r="112" ht="98" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5809,7 +5826,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="81" hidden="1" spans="1:3">
+    <row r="113" ht="84" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -5820,7 +5837,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="40.5" hidden="1" spans="1:3">
+    <row r="114" ht="42" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -5831,7 +5848,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="81" hidden="1" spans="1:3">
+    <row r="115" ht="84" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -5842,7 +5859,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="81" hidden="1" spans="1:3">
+    <row r="116" ht="84" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -5853,7 +5870,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="94.5" hidden="1" spans="1:3">
+    <row r="117" ht="112" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -5864,7 +5881,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="94.5" hidden="1" spans="1:3">
+    <row r="118" ht="98" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5875,7 +5892,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="189" hidden="1" spans="1:3">
+    <row r="119" ht="196" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -5886,7 +5903,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="121.5" hidden="1" spans="1:3">
+    <row r="120" ht="126" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -5897,7 +5914,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="54" hidden="1" spans="1:3">
+    <row r="121" ht="56" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -5908,7 +5925,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="94.5" hidden="1" spans="1:3">
+    <row r="122" ht="98" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -5919,7 +5936,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="94.5" hidden="1" spans="1:3">
+    <row r="123" ht="98" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -5930,7 +5947,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="216" spans="1:5">
+    <row r="124" ht="224" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -5947,7 +5964,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="135" hidden="1" spans="1:3">
+    <row r="125" ht="140" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -5958,7 +5975,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="94.5" hidden="1" spans="1:3">
+    <row r="126" ht="98" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -5969,7 +5986,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="121.5" hidden="1" spans="1:3">
+    <row r="127" ht="126" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -5980,7 +5997,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="54" hidden="1" spans="1:3">
+    <row r="128" ht="56" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -5991,7 +6008,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="94.5" hidden="1" spans="1:3">
+    <row r="129" ht="98" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -6002,7 +6019,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="67.5" hidden="1" spans="1:3">
+    <row r="130" ht="70" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -6013,7 +6030,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="108" hidden="1" spans="1:3">
+    <row r="131" ht="112" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -6024,7 +6041,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="108" hidden="1" spans="1:3">
+    <row r="132" ht="112" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -6035,7 +6052,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="81" hidden="1" spans="1:3">
+    <row r="133" ht="84" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -6046,7 +6063,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="94.5" hidden="1" spans="1:3">
+    <row r="134" ht="98" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -6057,7 +6074,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="81" hidden="1" spans="1:3">
+    <row r="135" ht="84" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -6068,7 +6085,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="94.5" hidden="1" spans="1:3">
+    <row r="136" ht="98" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -6079,7 +6096,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="94.5" hidden="1" spans="1:3">
+    <row r="137" ht="98" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -6090,7 +6107,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="121.5" hidden="1" spans="1:3">
+    <row r="138" ht="126" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -6101,7 +6118,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="67.5" hidden="1" spans="1:3">
+    <row r="139" ht="70" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -6112,7 +6129,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="54" hidden="1" spans="1:3">
+    <row r="140" ht="56" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -6123,7 +6140,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="81" hidden="1" spans="1:3">
+    <row r="141" ht="84" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -6134,7 +6151,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="40.5" hidden="1" spans="1:3">
+    <row r="142" ht="42" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -6145,7 +6162,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="54" hidden="1" spans="1:3">
+    <row r="143" ht="56" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -6156,7 +6173,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="54" hidden="1" spans="1:3">
+    <row r="144" ht="56" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -6167,7 +6184,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="94.5" hidden="1" spans="1:3">
+    <row r="145" ht="98" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -6178,7 +6195,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="40.5" hidden="1" spans="1:3">
+    <row r="146" ht="56" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -6200,7 +6217,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="202.5" hidden="1" spans="1:3">
+    <row r="148" ht="210" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -6211,7 +6228,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="148.5" hidden="1" spans="1:3">
+    <row r="149" ht="154" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -6222,7 +6239,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="94.5" hidden="1" spans="1:3">
+    <row r="150" ht="98" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -6233,7 +6250,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="94.5" hidden="1" spans="1:3">
+    <row r="151" ht="98" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -6244,7 +6261,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="121.5" hidden="1" spans="1:3">
+    <row r="152" ht="126" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -6255,7 +6272,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="216" hidden="1" spans="1:3">
+    <row r="153" ht="224" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -6266,7 +6283,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="135" hidden="1" spans="1:3">
+    <row r="154" ht="140" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -6277,7 +6294,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="189" hidden="1" spans="1:3">
+    <row r="155" ht="196" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -6288,7 +6305,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="108" hidden="1" spans="1:3">
+    <row r="156" ht="112" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -6299,7 +6316,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="67.5" hidden="1" spans="1:3">
+    <row r="157" ht="70" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6310,7 +6327,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="94.5" hidden="1" spans="1:3">
+    <row r="158" ht="98" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6321,7 +6338,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="67.5" hidden="1" spans="1:3">
+    <row r="159" ht="70" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6332,7 +6349,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="40.5" hidden="1" spans="1:3">
+    <row r="160" ht="42" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6343,7 +6360,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="81" hidden="1" spans="1:3">
+    <row r="161" ht="84" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6354,7 +6371,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="108" hidden="1" spans="1:3">
+    <row r="162" ht="112" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6365,7 +6382,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="121.5" spans="1:5">
+    <row r="163" ht="126" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6382,7 +6399,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="54" hidden="1" spans="1:3">
+    <row r="164" ht="56" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6393,7 +6410,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="121.5" hidden="1" spans="1:3">
+    <row r="165" ht="126" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6404,7 +6421,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="108" hidden="1" spans="1:3">
+    <row r="166" ht="112" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6415,7 +6432,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="270" hidden="1" spans="1:5">
+    <row r="167" ht="280" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6426,7 +6443,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="216" hidden="1" spans="1:5">
+    <row r="168" ht="238" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6437,7 +6454,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="94.5" spans="1:3">
+    <row r="169" ht="98" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6448,7 +6465,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="108" spans="1:3">
+    <row r="170" ht="112" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6459,7 +6476,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" ht="54" spans="1:3">
+    <row r="171" ht="56" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>525</v>
       </c>
@@ -6470,7 +6487,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" ht="121.5" spans="1:3">
+    <row r="172" ht="126" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>528</v>
       </c>
@@ -6481,7 +6498,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="173" ht="135" spans="1:3">
+    <row r="173" ht="140" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -6492,7 +6509,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="174" ht="108" spans="1:3">
+    <row r="174" ht="112" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -6503,7 +6520,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="175" ht="94.5" spans="1:3">
+    <row r="175" ht="98" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -6514,7 +6531,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" ht="121.5" spans="1:3">
+    <row r="176" ht="126" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>540</v>
       </c>
@@ -6525,7 +6542,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" ht="81" spans="1:3">
+    <row r="177" ht="84" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>543</v>
       </c>
@@ -6536,7 +6553,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="178" ht="148.5" spans="1:3">
+    <row r="178" ht="154" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>546</v>
       </c>
@@ -6547,7 +6564,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="179" ht="40.5" spans="1:3">
+    <row r="179" ht="42" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>549</v>
       </c>
@@ -6558,7 +6575,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="180" ht="27" spans="1:3">
+    <row r="180" ht="28" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>552</v>
       </c>
@@ -6569,7 +6586,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" ht="54" spans="1:3">
+    <row r="181" ht="56" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>555</v>
       </c>
@@ -6580,7 +6597,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="182" ht="121.5" spans="1:3">
+    <row r="182" ht="126" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>558</v>
       </c>
@@ -6591,7 +6608,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="183" ht="150" spans="1:3">
+    <row r="183" ht="154" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>561</v>
       </c>
@@ -6602,7 +6619,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="184" ht="121.5" spans="1:3">
+    <row r="184" ht="126" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>564</v>
       </c>
@@ -6613,7 +6630,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="185" ht="94.5" spans="1:3">
+    <row r="185" ht="98" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>567</v>
       </c>
@@ -6624,7 +6641,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="186" ht="108" spans="1:3">
+    <row r="186" ht="112" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>570</v>
       </c>
@@ -6635,7 +6652,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" ht="81" spans="1:3">
+    <row r="187" ht="84" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>573</v>
       </c>
@@ -6646,7 +6663,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="188" ht="162" spans="1:3">
+    <row r="188" ht="168" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>576</v>
       </c>
@@ -6657,8 +6674,19 @@
         <v>578</v>
       </c>
     </row>
+    <row r="189" ht="70" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E186" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E188" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="24743" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="591">
   <si>
     <t>id</t>
   </si>
@@ -3490,6 +3490,53 @@
 此致敬礼，
 Lies和Wim</t>
   </si>
+  <si>
+    <t>TH-369455</t>
+  </si>
+  <si>
+    <t>สวัสดี Thailand's greetings!
+Have you ever been to Thailand?
+Best wishes, Raman</t>
+  </si>
+  <si>
+    <t>สวัสดี（你好！） Thailand's greetings!（泰国的问候！）
+你曾经去过泰国吗？
+祝好，Raman</t>
+  </si>
+  <si>
+    <t>JP-2320540</t>
+  </si>
+  <si>
+    <t>Hi Siyuan!
+Nice to meet you.
+I'm Yuka from Japan.
+I live in Yokohama city, which has a large port. I hope your daughter likes this card. Have a nice day!
+佑果</t>
+  </si>
+  <si>
+    <t>嗨，思远！
+很高兴认识你。
+我是来自日本的优花。
+我住在横滨市，这里有一个大型港口。我希望你的女儿喜欢这张明信片。祝你有美好的一天！
+佑果</t>
+  </si>
+  <si>
+    <t>JP-2320820</t>
+  </si>
+  <si>
+    <t>你好！ I'm 葉子 (Yoko). I live in Yokohama, JAPAN. I went to watch the Tour de France in July.  
+Seeing the riders up close, the mountain scenery and the excitement in the towns made it a truly special experience.  
+I cycled up a mountain at an altitude of 2000 meters and was utterly exhausted!
+Happy postcrossing!  
+9 Oct. 2025</t>
+  </si>
+  <si>
+    <t>你好！我是葉子 (Yoko)。我住在日本横滨。我在七月去观看了环法自行车赛。  
+近距离看到车手们，以及山间的美丽风景和城镇里的欢乐氛围，让这个旅程变成了一次真正特别的体验。  
+我骑车爬上了一座海拔2000米的山，累得筋疲力尽！  
+祝明信片之旅愉快！  
+2025年10月9日</t>
+  </si>
 </sst>
 </file>
 
@@ -3667,14 +3714,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3697,14 +3738,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3712,6 +3747,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4536,20 +4583,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
+      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -5148,7 +5195,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="70" hidden="1" spans="1:3">
+    <row r="53" ht="72" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -5159,7 +5206,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="98" hidden="1" spans="1:3">
+    <row r="54" ht="100.8" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -5170,7 +5217,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="112" hidden="1" spans="1:3">
+    <row r="55" ht="115.2" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -5181,7 +5228,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="70" hidden="1" spans="1:3">
+    <row r="56" ht="72" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -5192,7 +5239,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="98" hidden="1" spans="1:3">
+    <row r="57" ht="100.8" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -5203,7 +5250,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="70" hidden="1" spans="1:3">
+    <row r="58" ht="72" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -5214,7 +5261,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="350" hidden="1" spans="1:3">
+    <row r="59" ht="360" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -5225,7 +5272,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="168" hidden="1" spans="1:3">
+    <row r="60" ht="172.8" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -5236,7 +5283,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="70" hidden="1" spans="1:3">
+    <row r="61" ht="72" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -5247,7 +5294,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="98" hidden="1" spans="1:3">
+    <row r="62" ht="100.8" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5258,7 +5305,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="126" hidden="1" spans="1:3">
+    <row r="63" ht="129.6" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5269,7 +5316,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="140" hidden="1" spans="1:3">
+    <row r="64" ht="144" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -5280,7 +5327,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="56" hidden="1" spans="1:3">
+    <row r="65" ht="57.6" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5291,7 +5338,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="252" spans="1:5">
+    <row r="66" ht="259.2" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5308,7 +5355,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="126" hidden="1" spans="1:3">
+    <row r="67" ht="129.6" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5319,7 +5366,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="98" hidden="1" spans="1:3">
+    <row r="68" ht="100.8" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5330,7 +5377,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="154" hidden="1" spans="1:3">
+    <row r="69" ht="158.4" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5341,7 +5388,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="56" hidden="1" spans="1:3">
+    <row r="70" ht="57.6" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5352,7 +5399,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="42" hidden="1" spans="1:3">
+    <row r="71" ht="43.2" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5363,7 +5410,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="98" hidden="1" spans="1:3">
+    <row r="72" ht="100.8" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5374,7 +5421,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="98" hidden="1" spans="1:3">
+    <row r="73" ht="100.8" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5385,7 +5432,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="70" hidden="1" spans="1:3">
+    <row r="74" ht="72" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5396,7 +5443,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="70" hidden="1" spans="1:3">
+    <row r="75" ht="72" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5407,7 +5454,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="42" hidden="1" spans="1:3">
+    <row r="76" ht="43.2" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5418,7 +5465,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="28" hidden="1" spans="1:3">
+    <row r="77" ht="28.8" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5429,7 +5476,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="224" hidden="1" spans="1:3">
+    <row r="78" ht="230.4" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5440,7 +5487,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="56" hidden="1" spans="1:3">
+    <row r="79" ht="57.6" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5451,7 +5498,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="98" hidden="1" spans="1:3">
+    <row r="80" ht="100.8" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5462,7 +5509,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="70" hidden="1" spans="1:3">
+    <row r="81" ht="72" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5473,7 +5520,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="154" hidden="1" spans="1:3">
+    <row r="82" ht="158.4" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5484,7 +5531,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="28" hidden="1" spans="1:3">
+    <row r="83" ht="28.8" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5495,7 +5542,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="112" spans="1:5">
+    <row r="84" ht="115.2" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5512,7 +5559,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="364" hidden="1" spans="1:3">
+    <row r="85" ht="374.4" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5523,7 +5570,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="112" hidden="1" spans="1:3">
+    <row r="86" ht="115.2" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5534,7 +5581,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="56" hidden="1" spans="1:3">
+    <row r="87" ht="57.6" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5545,7 +5592,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="84" hidden="1" spans="1:3">
+    <row r="88" ht="86.4" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5556,7 +5603,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="56" hidden="1" spans="1:3">
+    <row r="89" ht="57.6" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5567,7 +5614,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="112" hidden="1" spans="1:3">
+    <row r="90" ht="115.2" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5578,7 +5625,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="112" hidden="1" spans="1:3">
+    <row r="91" ht="115.2" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5589,7 +5636,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="84" hidden="1" spans="1:3">
+    <row r="92" ht="86.4" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5600,7 +5647,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="84" hidden="1" spans="1:3">
+    <row r="93" ht="86.4" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5611,7 +5658,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="100.5" hidden="1" spans="1:3">
+    <row r="94" ht="103.2" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5622,7 +5669,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="84" hidden="1" spans="1:3">
+    <row r="95" ht="86.4" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5633,7 +5680,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="98" hidden="1" spans="1:3">
+    <row r="96" ht="100.8" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5644,7 +5691,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="56" hidden="1" spans="1:3">
+    <row r="97" ht="57.6" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5655,7 +5702,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="70" hidden="1" spans="1:3">
+    <row r="98" ht="72" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5666,7 +5713,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="84" hidden="1" spans="1:3">
+    <row r="99" ht="86.4" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5677,7 +5724,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="100.5" hidden="1" spans="1:3">
+    <row r="100" ht="102" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5688,7 +5735,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="98" hidden="1" spans="1:3">
+    <row r="101" ht="100.8" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5699,7 +5746,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="70" hidden="1" spans="1:3">
+    <row r="102" ht="72" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5710,7 +5757,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="42" hidden="1" spans="1:3">
+    <row r="103" ht="43.2" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5721,7 +5768,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="56" hidden="1" spans="1:3">
+    <row r="104" ht="57.6" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5732,7 +5779,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="84" hidden="1" spans="1:3">
+    <row r="105" ht="86.4" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5743,7 +5790,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="28" hidden="1" spans="1:3">
+    <row r="106" ht="28.8" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5754,7 +5801,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="70" hidden="1" spans="1:3">
+    <row r="107" ht="72" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5765,7 +5812,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="364" spans="1:5">
+    <row r="108" ht="374.4" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5782,7 +5829,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="98" hidden="1" spans="1:3">
+    <row r="109" ht="100.8" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5793,7 +5840,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="28" hidden="1" spans="1:3">
+    <row r="110" ht="28.8" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5804,7 +5851,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="56" hidden="1" spans="1:3">
+    <row r="111" ht="57.6" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5815,7 +5862,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="98" hidden="1" spans="1:3">
+    <row r="112" ht="100.8" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5826,7 +5873,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="84" hidden="1" spans="1:3">
+    <row r="113" ht="86.4" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -5837,7 +5884,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="42" hidden="1" spans="1:3">
+    <row r="114" ht="43.2" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -5848,7 +5895,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="84" hidden="1" spans="1:3">
+    <row r="115" ht="86.4" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -5859,7 +5906,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="84" hidden="1" spans="1:3">
+    <row r="116" ht="86.4" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -5870,7 +5917,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="112" hidden="1" spans="1:3">
+    <row r="117" ht="115.2" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -5881,7 +5928,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="98" hidden="1" spans="1:3">
+    <row r="118" ht="100.8" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5892,7 +5939,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="196" hidden="1" spans="1:3">
+    <row r="119" ht="201.6" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -5903,7 +5950,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="126" hidden="1" spans="1:3">
+    <row r="120" ht="129.6" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -5914,7 +5961,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="56" hidden="1" spans="1:3">
+    <row r="121" ht="57.6" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -5925,7 +5972,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="98" hidden="1" spans="1:3">
+    <row r="122" ht="100.8" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -5936,7 +5983,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="98" hidden="1" spans="1:3">
+    <row r="123" ht="100.8" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -5947,7 +5994,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:5">
+    <row r="124" ht="230.4" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -5964,7 +6011,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="140" hidden="1" spans="1:3">
+    <row r="125" ht="144" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -5975,7 +6022,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="98" hidden="1" spans="1:3">
+    <row r="126" ht="100.8" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -5986,7 +6033,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="126" hidden="1" spans="1:3">
+    <row r="127" ht="129.6" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -5997,7 +6044,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="56" hidden="1" spans="1:3">
+    <row r="128" ht="57.6" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -6008,7 +6055,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="98" hidden="1" spans="1:3">
+    <row r="129" ht="100.8" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -6019,7 +6066,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="70" hidden="1" spans="1:3">
+    <row r="130" ht="72" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -6030,7 +6077,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="112" hidden="1" spans="1:3">
+    <row r="131" ht="115.2" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -6041,7 +6088,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="112" hidden="1" spans="1:3">
+    <row r="132" ht="115.2" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -6052,7 +6099,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="84" hidden="1" spans="1:3">
+    <row r="133" ht="86.4" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -6063,7 +6110,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="98" hidden="1" spans="1:3">
+    <row r="134" ht="100.8" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -6074,7 +6121,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="84" hidden="1" spans="1:3">
+    <row r="135" ht="86.4" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -6085,7 +6132,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="98" hidden="1" spans="1:3">
+    <row r="136" ht="100.8" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -6096,7 +6143,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="98" hidden="1" spans="1:3">
+    <row r="137" ht="100.8" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -6107,7 +6154,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="126" hidden="1" spans="1:3">
+    <row r="138" ht="129.6" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -6118,7 +6165,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="70" hidden="1" spans="1:3">
+    <row r="139" ht="72" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -6129,7 +6176,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="56" hidden="1" spans="1:3">
+    <row r="140" ht="57.6" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -6140,7 +6187,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="84" hidden="1" spans="1:3">
+    <row r="141" ht="86.4" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -6151,7 +6198,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="42" hidden="1" spans="1:3">
+    <row r="142" ht="43.2" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -6162,7 +6209,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="56" hidden="1" spans="1:3">
+    <row r="143" ht="57.6" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -6173,7 +6220,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="56" hidden="1" spans="1:3">
+    <row r="144" ht="57.6" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -6184,7 +6231,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="98" hidden="1" spans="1:3">
+    <row r="145" ht="100.8" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -6195,7 +6242,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="56" hidden="1" spans="1:3">
+    <row r="146" ht="57.6" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -6217,7 +6264,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="210" hidden="1" spans="1:3">
+    <row r="148" ht="216" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -6228,7 +6275,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="154" hidden="1" spans="1:3">
+    <row r="149" ht="158.4" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -6239,7 +6286,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="98" hidden="1" spans="1:3">
+    <row r="150" ht="100.8" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -6250,7 +6297,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="98" hidden="1" spans="1:3">
+    <row r="151" ht="100.8" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -6261,7 +6308,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="126" hidden="1" spans="1:3">
+    <row r="152" ht="129.6" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -6272,7 +6319,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="224" hidden="1" spans="1:3">
+    <row r="153" ht="230.4" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -6283,7 +6330,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="140" hidden="1" spans="1:3">
+    <row r="154" ht="144" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -6294,7 +6341,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="196" hidden="1" spans="1:3">
+    <row r="155" ht="201.6" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -6305,7 +6352,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="112" hidden="1" spans="1:3">
+    <row r="156" ht="115.2" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -6316,7 +6363,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="70" hidden="1" spans="1:3">
+    <row r="157" ht="72" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6327,7 +6374,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="98" hidden="1" spans="1:3">
+    <row r="158" ht="100.8" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6338,7 +6385,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="70" hidden="1" spans="1:3">
+    <row r="159" ht="72" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6349,7 +6396,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="42" hidden="1" spans="1:3">
+    <row r="160" ht="43.2" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6360,7 +6407,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="84" hidden="1" spans="1:3">
+    <row r="161" ht="86.4" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6371,7 +6418,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="112" hidden="1" spans="1:3">
+    <row r="162" ht="115.2" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6382,7 +6429,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="126" spans="1:5">
+    <row r="163" ht="129.6" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6399,7 +6446,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="56" hidden="1" spans="1:3">
+    <row r="164" ht="57.6" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6410,7 +6457,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="126" hidden="1" spans="1:3">
+    <row r="165" ht="129.6" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6421,7 +6468,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="112" hidden="1" spans="1:3">
+    <row r="166" ht="115.2" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6432,7 +6479,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="280" hidden="1" spans="1:5">
+    <row r="167" ht="288" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6443,7 +6490,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="238" hidden="1" spans="1:5">
+    <row r="168" ht="244.8" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6454,7 +6501,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="98" spans="1:3">
+    <row r="169" ht="100.8" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6465,7 +6512,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="112" spans="1:3">
+    <row r="170" ht="115.2" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6476,7 +6523,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" ht="56" spans="1:3">
+    <row r="171" ht="57.6" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>525</v>
       </c>
@@ -6487,7 +6534,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" ht="126" spans="1:3">
+    <row r="172" ht="129.6" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>528</v>
       </c>
@@ -6498,7 +6545,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="173" ht="140" spans="1:3">
+    <row r="173" ht="144" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -6509,7 +6556,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="174" ht="112" spans="1:3">
+    <row r="174" ht="115.2" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -6520,7 +6567,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="175" ht="98" spans="1:3">
+    <row r="175" ht="100.8" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -6531,7 +6578,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" ht="126" spans="1:3">
+    <row r="176" ht="129.6" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>540</v>
       </c>
@@ -6542,7 +6589,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" ht="84" spans="1:3">
+    <row r="177" ht="86.4" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>543</v>
       </c>
@@ -6553,7 +6600,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="178" ht="154" spans="1:3">
+    <row r="178" ht="158.4" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>546</v>
       </c>
@@ -6564,7 +6611,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="179" ht="42" spans="1:3">
+    <row r="179" ht="43.2" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>549</v>
       </c>
@@ -6575,7 +6622,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="180" ht="28" spans="1:3">
+    <row r="180" ht="28.8" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>552</v>
       </c>
@@ -6586,7 +6633,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" ht="56" spans="1:3">
+    <row r="181" ht="57.6" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>555</v>
       </c>
@@ -6597,7 +6644,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="182" ht="126" spans="1:3">
+    <row r="182" ht="129.6" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>558</v>
       </c>
@@ -6608,7 +6655,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="183" ht="154" spans="1:3">
+    <row r="183" ht="158.4" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>561</v>
       </c>
@@ -6619,7 +6666,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="184" ht="126" spans="1:3">
+    <row r="184" ht="129.6" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>564</v>
       </c>
@@ -6630,7 +6677,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="185" ht="98" spans="1:3">
+    <row r="185" ht="100.8" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>567</v>
       </c>
@@ -6641,7 +6688,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="186" ht="112" spans="1:3">
+    <row r="186" ht="115.2" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>570</v>
       </c>
@@ -6652,7 +6699,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" ht="84" spans="1:3">
+    <row r="187" ht="86.4" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>573</v>
       </c>
@@ -6663,7 +6710,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="188" ht="168" spans="1:3">
+    <row r="188" ht="172.8" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>576</v>
       </c>
@@ -6674,7 +6721,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="189" ht="70" spans="1:3">
+    <row r="189" ht="72" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>579</v>
       </c>
@@ -6685,8 +6732,41 @@
         <v>581</v>
       </c>
     </row>
+    <row r="190" ht="57.6" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="191" ht="100.8" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="192" ht="129.6" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E188" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E189" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24743" windowHeight="10500"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$192</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="594">
   <si>
     <t>id</t>
   </si>
@@ -3537,6 +3537,19 @@
 祝明信片之旅愉快！  
 2025年10月9日</t>
   </si>
+  <si>
+    <t>DE-15911339</t>
+  </si>
+  <si>
+    <t>Hello Arthur,
+I send you greetings from Berlin in Germany. My name is Mico, I'm 27 years old. Right now, Berlin has its "festival of lights" right in downtown, where every night will be light in a special way. You can look it up on the web! Alles Gute!
+- Mico</t>
+  </si>
+  <si>
+    <t>你好，Arthur,
+我向你从德国柏林送上问候。我的名字是Mico，今年27岁。目前，柏林正在举办“灯光节”，就在市中心，每个夜晚都会以特殊的方式被点亮。你可以在网上查找相关信息！Alles Gute!（祝一切顺利！）
+- Mico</t>
+  </si>
 </sst>
 </file>
 
@@ -3714,8 +3727,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3727,19 +3752,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3756,8 +3769,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4583,20 +4596,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
+      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1296296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -5195,7 +5208,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="72" hidden="1" spans="1:3">
+    <row r="53" ht="70" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -5206,7 +5219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="100.8" hidden="1" spans="1:3">
+    <row r="54" ht="98" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -5217,7 +5230,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="115.2" hidden="1" spans="1:3">
+    <row r="55" ht="112" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -5228,7 +5241,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="72" hidden="1" spans="1:3">
+    <row r="56" ht="70" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -5239,7 +5252,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="100.8" hidden="1" spans="1:3">
+    <row r="57" ht="98" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -5250,7 +5263,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="72" hidden="1" spans="1:3">
+    <row r="58" ht="70" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -5261,7 +5274,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="360" hidden="1" spans="1:3">
+    <row r="59" ht="350" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -5272,7 +5285,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="172.8" hidden="1" spans="1:3">
+    <row r="60" ht="168" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -5283,7 +5296,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="72" hidden="1" spans="1:3">
+    <row r="61" ht="70" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -5294,7 +5307,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="100.8" hidden="1" spans="1:3">
+    <row r="62" ht="98" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5305,7 +5318,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="129.6" hidden="1" spans="1:3">
+    <row r="63" ht="126" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5316,7 +5329,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="144" hidden="1" spans="1:3">
+    <row r="64" ht="140" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -5327,7 +5340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="57.6" hidden="1" spans="1:3">
+    <row r="65" ht="56" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5338,7 +5351,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="259.2" spans="1:5">
+    <row r="66" ht="252" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5355,7 +5368,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="129.6" hidden="1" spans="1:3">
+    <row r="67" ht="126" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5366,7 +5379,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="100.8" hidden="1" spans="1:3">
+    <row r="68" ht="98" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5377,7 +5390,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="158.4" hidden="1" spans="1:3">
+    <row r="69" ht="154" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5388,7 +5401,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="57.6" hidden="1" spans="1:3">
+    <row r="70" ht="56" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5399,7 +5412,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="43.2" hidden="1" spans="1:3">
+    <row r="71" ht="42" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5410,7 +5423,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="100.8" hidden="1" spans="1:3">
+    <row r="72" ht="98" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5421,7 +5434,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="100.8" hidden="1" spans="1:3">
+    <row r="73" ht="98" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5432,7 +5445,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="72" hidden="1" spans="1:3">
+    <row r="74" ht="70" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5443,7 +5456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="72" hidden="1" spans="1:3">
+    <row r="75" ht="70" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5454,7 +5467,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="43.2" hidden="1" spans="1:3">
+    <row r="76" ht="42" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5465,7 +5478,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="28.8" hidden="1" spans="1:3">
+    <row r="77" ht="28" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5476,7 +5489,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="230.4" hidden="1" spans="1:3">
+    <row r="78" ht="224" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5487,7 +5500,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="57.6" hidden="1" spans="1:3">
+    <row r="79" ht="56" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5498,7 +5511,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="100.8" hidden="1" spans="1:3">
+    <row r="80" ht="98" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5509,7 +5522,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="72" hidden="1" spans="1:3">
+    <row r="81" ht="70" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5520,7 +5533,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="158.4" hidden="1" spans="1:3">
+    <row r="82" ht="154" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5531,7 +5544,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="28.8" hidden="1" spans="1:3">
+    <row r="83" ht="28" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5542,7 +5555,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="115.2" spans="1:5">
+    <row r="84" ht="112" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5559,7 +5572,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="374.4" hidden="1" spans="1:3">
+    <row r="85" ht="364" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5570,7 +5583,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="115.2" hidden="1" spans="1:3">
+    <row r="86" ht="112" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5581,7 +5594,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="57.6" hidden="1" spans="1:3">
+    <row r="87" ht="56" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5592,7 +5605,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="86.4" hidden="1" spans="1:3">
+    <row r="88" ht="84" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5603,7 +5616,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="57.6" hidden="1" spans="1:3">
+    <row r="89" ht="56" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5614,7 +5627,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="115.2" hidden="1" spans="1:3">
+    <row r="90" ht="112" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5625,7 +5638,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="115.2" hidden="1" spans="1:3">
+    <row r="91" ht="112" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5636,7 +5649,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="86.4" hidden="1" spans="1:3">
+    <row r="92" ht="84" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5647,7 +5660,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="86.4" hidden="1" spans="1:3">
+    <row r="93" ht="84" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5658,7 +5671,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="103.2" hidden="1" spans="1:3">
+    <row r="94" ht="100.5" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5669,7 +5682,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="86.4" hidden="1" spans="1:3">
+    <row r="95" ht="84" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5680,7 +5693,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="100.8" hidden="1" spans="1:3">
+    <row r="96" ht="98" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5691,7 +5704,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="57.6" hidden="1" spans="1:3">
+    <row r="97" ht="56" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5702,7 +5715,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="72" hidden="1" spans="1:3">
+    <row r="98" ht="70" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5713,7 +5726,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="86.4" hidden="1" spans="1:3">
+    <row r="99" ht="84" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5724,7 +5737,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="102" hidden="1" spans="1:3">
+    <row r="100" ht="100.5" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5735,7 +5748,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="100.8" hidden="1" spans="1:3">
+    <row r="101" ht="98" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5746,7 +5759,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="72" hidden="1" spans="1:3">
+    <row r="102" ht="70" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5757,7 +5770,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="43.2" hidden="1" spans="1:3">
+    <row r="103" ht="42" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5768,7 +5781,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="57.6" hidden="1" spans="1:3">
+    <row r="104" ht="56" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5779,7 +5792,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="86.4" hidden="1" spans="1:3">
+    <row r="105" ht="84" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5790,7 +5803,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="28.8" hidden="1" spans="1:3">
+    <row r="106" ht="28" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5801,7 +5814,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="72" hidden="1" spans="1:3">
+    <row r="107" ht="70" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5812,7 +5825,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="374.4" spans="1:5">
+    <row r="108" ht="364" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5829,7 +5842,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="100.8" hidden="1" spans="1:3">
+    <row r="109" ht="98" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5840,7 +5853,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="28.8" hidden="1" spans="1:3">
+    <row r="110" ht="28" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5851,7 +5864,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="57.6" hidden="1" spans="1:3">
+    <row r="111" ht="56" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5862,7 +5875,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="100.8" hidden="1" spans="1:3">
+    <row r="112" ht="98" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5873,7 +5886,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="86.4" hidden="1" spans="1:3">
+    <row r="113" ht="84" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -5884,7 +5897,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="43.2" hidden="1" spans="1:3">
+    <row r="114" ht="42" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -5895,7 +5908,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="86.4" hidden="1" spans="1:3">
+    <row r="115" ht="84" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -5906,7 +5919,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="86.4" hidden="1" spans="1:3">
+    <row r="116" ht="84" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -5917,7 +5930,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="115.2" hidden="1" spans="1:3">
+    <row r="117" ht="112" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -5928,7 +5941,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="100.8" hidden="1" spans="1:3">
+    <row r="118" ht="98" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5939,7 +5952,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="201.6" hidden="1" spans="1:3">
+    <row r="119" ht="196" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -5950,7 +5963,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="129.6" hidden="1" spans="1:3">
+    <row r="120" ht="126" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -5961,7 +5974,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="57.6" hidden="1" spans="1:3">
+    <row r="121" ht="56" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -5972,7 +5985,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="100.8" hidden="1" spans="1:3">
+    <row r="122" ht="98" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -5983,7 +5996,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="100.8" hidden="1" spans="1:3">
+    <row r="123" ht="98" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -5994,7 +6007,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="230.4" spans="1:5">
+    <row r="124" ht="224" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -6011,7 +6024,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="144" hidden="1" spans="1:3">
+    <row r="125" ht="140" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -6022,7 +6035,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="100.8" hidden="1" spans="1:3">
+    <row r="126" ht="98" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -6033,7 +6046,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="129.6" hidden="1" spans="1:3">
+    <row r="127" ht="126" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -6044,7 +6057,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="57.6" hidden="1" spans="1:3">
+    <row r="128" ht="56" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -6055,7 +6068,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="100.8" hidden="1" spans="1:3">
+    <row r="129" ht="98" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -6066,7 +6079,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="72" hidden="1" spans="1:3">
+    <row r="130" ht="70" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -6077,7 +6090,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="115.2" hidden="1" spans="1:3">
+    <row r="131" ht="112" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -6088,7 +6101,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="115.2" hidden="1" spans="1:3">
+    <row r="132" ht="112" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -6099,7 +6112,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="86.4" hidden="1" spans="1:3">
+    <row r="133" ht="84" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -6110,7 +6123,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="100.8" hidden="1" spans="1:3">
+    <row r="134" ht="98" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -6121,7 +6134,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="86.4" hidden="1" spans="1:3">
+    <row r="135" ht="84" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -6132,7 +6145,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="100.8" hidden="1" spans="1:3">
+    <row r="136" ht="98" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -6143,7 +6156,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="100.8" hidden="1" spans="1:3">
+    <row r="137" ht="98" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -6154,7 +6167,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="129.6" hidden="1" spans="1:3">
+    <row r="138" ht="126" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -6165,7 +6178,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="72" hidden="1" spans="1:3">
+    <row r="139" ht="70" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -6176,7 +6189,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="57.6" hidden="1" spans="1:3">
+    <row r="140" ht="56" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -6187,7 +6200,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="86.4" hidden="1" spans="1:3">
+    <row r="141" ht="84" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -6198,7 +6211,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="43.2" hidden="1" spans="1:3">
+    <row r="142" ht="42" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -6209,7 +6222,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="57.6" hidden="1" spans="1:3">
+    <row r="143" ht="56" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -6220,7 +6233,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="57.6" hidden="1" spans="1:3">
+    <row r="144" ht="56" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -6231,7 +6244,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="100.8" hidden="1" spans="1:3">
+    <row r="145" ht="98" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -6242,7 +6255,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="57.6" hidden="1" spans="1:3">
+    <row r="146" ht="56" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -6264,7 +6277,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="216" hidden="1" spans="1:3">
+    <row r="148" ht="210" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -6275,7 +6288,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="158.4" hidden="1" spans="1:3">
+    <row r="149" ht="154" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -6286,7 +6299,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="100.8" hidden="1" spans="1:3">
+    <row r="150" ht="98" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -6297,7 +6310,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="100.8" hidden="1" spans="1:3">
+    <row r="151" ht="98" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -6308,7 +6321,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="129.6" hidden="1" spans="1:3">
+    <row r="152" ht="126" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -6319,7 +6332,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="230.4" hidden="1" spans="1:3">
+    <row r="153" ht="224" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -6330,7 +6343,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="144" hidden="1" spans="1:3">
+    <row r="154" ht="140" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -6341,7 +6354,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="201.6" hidden="1" spans="1:3">
+    <row r="155" ht="196" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -6352,7 +6365,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="115.2" hidden="1" spans="1:3">
+    <row r="156" ht="112" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -6363,7 +6376,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="72" hidden="1" spans="1:3">
+    <row r="157" ht="70" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6374,7 +6387,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="100.8" hidden="1" spans="1:3">
+    <row r="158" ht="98" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6385,7 +6398,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="72" hidden="1" spans="1:3">
+    <row r="159" ht="70" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6396,7 +6409,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="43.2" hidden="1" spans="1:3">
+    <row r="160" ht="42" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6407,7 +6420,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="86.4" hidden="1" spans="1:3">
+    <row r="161" ht="84" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6418,7 +6431,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="115.2" hidden="1" spans="1:3">
+    <row r="162" ht="112" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6429,7 +6442,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="129.6" spans="1:5">
+    <row r="163" ht="126" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6446,7 +6459,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="57.6" hidden="1" spans="1:3">
+    <row r="164" ht="56" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6457,7 +6470,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="129.6" hidden="1" spans="1:3">
+    <row r="165" ht="126" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6468,7 +6481,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="115.2" hidden="1" spans="1:3">
+    <row r="166" ht="112" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6479,7 +6492,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="288" hidden="1" spans="1:5">
+    <row r="167" ht="280" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6490,7 +6503,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="244.8" hidden="1" spans="1:5">
+    <row r="168" ht="238" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6501,7 +6514,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="100.8" spans="1:3">
+    <row r="169" ht="98" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6512,7 +6525,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="115.2" spans="1:3">
+    <row r="170" ht="112" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6523,7 +6536,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" ht="57.6" spans="1:3">
+    <row r="171" ht="56" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>525</v>
       </c>
@@ -6534,7 +6547,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" ht="129.6" spans="1:3">
+    <row r="172" ht="126" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>528</v>
       </c>
@@ -6545,7 +6558,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="173" ht="144" spans="1:3">
+    <row r="173" ht="140" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -6556,7 +6569,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="174" ht="115.2" spans="1:3">
+    <row r="174" ht="112" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -6567,7 +6580,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="175" ht="100.8" spans="1:3">
+    <row r="175" ht="98" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -6578,7 +6591,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" ht="129.6" spans="1:3">
+    <row r="176" ht="126" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>540</v>
       </c>
@@ -6589,7 +6602,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" ht="86.4" spans="1:3">
+    <row r="177" ht="84" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>543</v>
       </c>
@@ -6600,7 +6613,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="178" ht="158.4" spans="1:3">
+    <row r="178" ht="154" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>546</v>
       </c>
@@ -6611,7 +6624,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="179" ht="43.2" spans="1:3">
+    <row r="179" ht="42" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>549</v>
       </c>
@@ -6622,7 +6635,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="180" ht="28.8" spans="1:3">
+    <row r="180" ht="28" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>552</v>
       </c>
@@ -6633,7 +6646,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" ht="57.6" spans="1:3">
+    <row r="181" ht="56" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>555</v>
       </c>
@@ -6644,7 +6657,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="182" ht="129.6" spans="1:3">
+    <row r="182" ht="126" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>558</v>
       </c>
@@ -6655,7 +6668,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="183" ht="158.4" spans="1:3">
+    <row r="183" ht="154" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>561</v>
       </c>
@@ -6666,7 +6679,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="184" ht="129.6" spans="1:3">
+    <row r="184" ht="126" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>564</v>
       </c>
@@ -6677,7 +6690,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="185" ht="100.8" spans="1:3">
+    <row r="185" ht="98" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>567</v>
       </c>
@@ -6688,7 +6701,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="186" ht="115.2" spans="1:3">
+    <row r="186" ht="112" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>570</v>
       </c>
@@ -6699,7 +6712,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" ht="86.4" spans="1:3">
+    <row r="187" ht="84" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>573</v>
       </c>
@@ -6710,7 +6723,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="188" ht="172.8" spans="1:3">
+    <row r="188" ht="168" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>576</v>
       </c>
@@ -6721,7 +6734,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="189" ht="72" spans="1:3">
+    <row r="189" ht="70" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>579</v>
       </c>
@@ -6732,7 +6745,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="190" ht="57.6" spans="1:3">
+    <row r="190" ht="56" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>582</v>
       </c>
@@ -6743,7 +6756,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="191" ht="100.8" spans="1:3">
+    <row r="191" ht="98" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>585</v>
       </c>
@@ -6754,7 +6767,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="192" ht="129.6" spans="1:3">
+    <row r="192" ht="126" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>588</v>
       </c>
@@ -6765,8 +6778,19 @@
         <v>590</v>
       </c>
     </row>
+    <row r="193" ht="98" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E189" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E192" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="603">
   <si>
     <t>id</t>
   </si>
@@ -3550,6 +3550,54 @@
 我向你从德国柏林送上问候。我的名字是Mico，今年27岁。目前，柏林正在举办“灯光节”，就在市中心，每个夜晚都会以特殊的方式被点亮。你可以在网上查找相关信息！Alles Gute!（祝一切顺利！）
 - Mico</t>
   </si>
+  <si>
+    <t>AU-1036963</t>
+  </si>
+  <si>
+    <t>23°C Sunny
+Thursday 9th October 2025
+Hi Arthur,  
+I chose this card as one that Xiaoxiao will like. I hope one day she gets to see koalas in Australia. Sadly, their habitat is decreasing due to urban sprawl and logging.  
+I'm about to go on a long walk in the lovely spring sunshine.  
+Best wishes,  
+Julie</t>
+  </si>
+  <si>
+    <t>23°C 晴
+2025年10月9日星期四
+嗨，Arthur：  
+我选了这张明信片，因为我觉得笑笑会喜欢。我希望有一天她可以在澳大利亚看到考拉。遗憾的是，由于城市扩张和砍伐树木，它们的栖息地正在减少。  
+我正准备出去，在这个美好的春日阳光下进行一场漫长的散步。  
+祝好，  
+Julie</t>
+  </si>
+  <si>
+    <t>DE-15911337</t>
+  </si>
+  <si>
+    <t>For Xiaoxiao!
+Best wishes!
+Natalja
+Paint us.</t>
+  </si>
+  <si>
+    <t>致笑笑！
+最美好的祝愿！
+纳塔利娅
+给我们涂色吧。</t>
+  </si>
+  <si>
+    <t>US-11813520</t>
+  </si>
+  <si>
+    <t>October 8, 2025
+Hello Arthur!
+This card is for your daughter! Peace!</t>
+  </si>
+  <si>
+    <t>你好，Arthur！（你好，亚瑟！）
+这张卡是给你女儿的！祝你平安！</t>
+  </si>
 </sst>
 </file>
 
@@ -3727,24 +3775,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
@@ -3757,14 +3787,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4596,20 +4644,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
+      <selection pane="bottomLeft" activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -5208,7 +5256,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="70" hidden="1" spans="1:3">
+    <row r="53" ht="72" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -5219,7 +5267,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="98" hidden="1" spans="1:3">
+    <row r="54" ht="100.8" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -5230,7 +5278,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="112" hidden="1" spans="1:3">
+    <row r="55" ht="115.2" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -5241,7 +5289,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="70" hidden="1" spans="1:3">
+    <row r="56" ht="72" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -5252,7 +5300,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="98" hidden="1" spans="1:3">
+    <row r="57" ht="100.8" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -5263,7 +5311,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="70" hidden="1" spans="1:3">
+    <row r="58" ht="72" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -5274,7 +5322,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="350" hidden="1" spans="1:3">
+    <row r="59" ht="360" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -5285,7 +5333,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="168" hidden="1" spans="1:3">
+    <row r="60" ht="172.8" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -5296,7 +5344,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="70" hidden="1" spans="1:3">
+    <row r="61" ht="72" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -5307,7 +5355,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="98" hidden="1" spans="1:3">
+    <row r="62" ht="100.8" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5318,7 +5366,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="126" hidden="1" spans="1:3">
+    <row r="63" ht="129.6" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5329,7 +5377,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="140" hidden="1" spans="1:3">
+    <row r="64" ht="144" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -5340,7 +5388,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="56" hidden="1" spans="1:3">
+    <row r="65" ht="57.6" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5351,7 +5399,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="252" spans="1:5">
+    <row r="66" ht="259.2" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5368,7 +5416,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="126" hidden="1" spans="1:3">
+    <row r="67" ht="129.6" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5379,7 +5427,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="98" hidden="1" spans="1:3">
+    <row r="68" ht="100.8" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5390,7 +5438,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="154" hidden="1" spans="1:3">
+    <row r="69" ht="158.4" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5401,7 +5449,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="56" hidden="1" spans="1:3">
+    <row r="70" ht="57.6" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5412,7 +5460,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="42" hidden="1" spans="1:3">
+    <row r="71" ht="43.2" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5423,7 +5471,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="98" hidden="1" spans="1:3">
+    <row r="72" ht="100.8" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5434,7 +5482,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="98" hidden="1" spans="1:3">
+    <row r="73" ht="100.8" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5445,7 +5493,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="70" hidden="1" spans="1:3">
+    <row r="74" ht="72" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5456,7 +5504,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="70" hidden="1" spans="1:3">
+    <row r="75" ht="72" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5467,7 +5515,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="42" hidden="1" spans="1:3">
+    <row r="76" ht="43.2" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5478,7 +5526,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="28" hidden="1" spans="1:3">
+    <row r="77" ht="28.8" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5489,7 +5537,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="224" hidden="1" spans="1:3">
+    <row r="78" ht="230.4" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5500,7 +5548,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="56" hidden="1" spans="1:3">
+    <row r="79" ht="57.6" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5511,7 +5559,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="98" hidden="1" spans="1:3">
+    <row r="80" ht="100.8" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5522,7 +5570,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="70" hidden="1" spans="1:3">
+    <row r="81" ht="72" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5533,7 +5581,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="154" hidden="1" spans="1:3">
+    <row r="82" ht="158.4" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5544,7 +5592,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="28" hidden="1" spans="1:3">
+    <row r="83" ht="28.8" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5555,7 +5603,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="112" spans="1:5">
+    <row r="84" ht="115.2" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5572,7 +5620,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="364" hidden="1" spans="1:3">
+    <row r="85" ht="374.4" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5583,7 +5631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="112" hidden="1" spans="1:3">
+    <row r="86" ht="115.2" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5594,7 +5642,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="56" hidden="1" spans="1:3">
+    <row r="87" ht="57.6" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5605,7 +5653,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="84" hidden="1" spans="1:3">
+    <row r="88" ht="86.4" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5616,7 +5664,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="56" hidden="1" spans="1:3">
+    <row r="89" ht="57.6" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5627,7 +5675,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="112" hidden="1" spans="1:3">
+    <row r="90" ht="115.2" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5638,7 +5686,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="112" hidden="1" spans="1:3">
+    <row r="91" ht="115.2" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5649,7 +5697,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="84" hidden="1" spans="1:3">
+    <row r="92" ht="86.4" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5660,7 +5708,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="84" hidden="1" spans="1:3">
+    <row r="93" ht="86.4" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5671,7 +5719,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="100.5" hidden="1" spans="1:3">
+    <row r="94" ht="103.2" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5682,7 +5730,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="84" hidden="1" spans="1:3">
+    <row r="95" ht="86.4" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5693,7 +5741,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="98" hidden="1" spans="1:3">
+    <row r="96" ht="100.8" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5704,7 +5752,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="56" hidden="1" spans="1:3">
+    <row r="97" ht="57.6" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5715,7 +5763,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="70" hidden="1" spans="1:3">
+    <row r="98" ht="72" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5726,7 +5774,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="84" hidden="1" spans="1:3">
+    <row r="99" ht="86.4" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5737,7 +5785,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="100.5" hidden="1" spans="1:3">
+    <row r="100" ht="102" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5748,7 +5796,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="98" hidden="1" spans="1:3">
+    <row r="101" ht="100.8" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5759,7 +5807,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="70" hidden="1" spans="1:3">
+    <row r="102" ht="72" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5770,7 +5818,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="42" hidden="1" spans="1:3">
+    <row r="103" ht="43.2" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5781,7 +5829,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="56" hidden="1" spans="1:3">
+    <row r="104" ht="57.6" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5792,7 +5840,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="84" hidden="1" spans="1:3">
+    <row r="105" ht="86.4" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5803,7 +5851,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="28" hidden="1" spans="1:3">
+    <row r="106" ht="28.8" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5814,7 +5862,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="70" hidden="1" spans="1:3">
+    <row r="107" ht="72" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5825,7 +5873,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="364" spans="1:5">
+    <row r="108" ht="374.4" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5842,7 +5890,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="98" hidden="1" spans="1:3">
+    <row r="109" ht="100.8" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5853,7 +5901,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="28" hidden="1" spans="1:3">
+    <row r="110" ht="28.8" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5864,7 +5912,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="56" hidden="1" spans="1:3">
+    <row r="111" ht="57.6" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5875,7 +5923,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="98" hidden="1" spans="1:3">
+    <row r="112" ht="100.8" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5886,7 +5934,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="84" hidden="1" spans="1:3">
+    <row r="113" ht="86.4" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -5897,7 +5945,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="42" hidden="1" spans="1:3">
+    <row r="114" ht="43.2" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -5908,7 +5956,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="84" hidden="1" spans="1:3">
+    <row r="115" ht="86.4" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -5919,7 +5967,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="84" hidden="1" spans="1:3">
+    <row r="116" ht="86.4" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -5930,7 +5978,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="112" hidden="1" spans="1:3">
+    <row r="117" ht="115.2" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -5941,7 +5989,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="98" hidden="1" spans="1:3">
+    <row r="118" ht="100.8" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5952,7 +6000,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="196" hidden="1" spans="1:3">
+    <row r="119" ht="201.6" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -5963,7 +6011,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="126" hidden="1" spans="1:3">
+    <row r="120" ht="129.6" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -5974,7 +6022,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="56" hidden="1" spans="1:3">
+    <row r="121" ht="57.6" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -5985,7 +6033,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="98" hidden="1" spans="1:3">
+    <row r="122" ht="100.8" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -5996,7 +6044,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="98" hidden="1" spans="1:3">
+    <row r="123" ht="100.8" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -6007,7 +6055,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:5">
+    <row r="124" ht="230.4" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -6024,7 +6072,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="140" hidden="1" spans="1:3">
+    <row r="125" ht="144" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -6035,7 +6083,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="98" hidden="1" spans="1:3">
+    <row r="126" ht="100.8" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -6046,7 +6094,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="126" hidden="1" spans="1:3">
+    <row r="127" ht="129.6" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -6057,7 +6105,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="56" hidden="1" spans="1:3">
+    <row r="128" ht="57.6" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -6068,7 +6116,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="98" hidden="1" spans="1:3">
+    <row r="129" ht="100.8" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -6079,7 +6127,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="70" hidden="1" spans="1:3">
+    <row r="130" ht="72" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -6090,7 +6138,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="112" hidden="1" spans="1:3">
+    <row r="131" ht="115.2" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -6101,7 +6149,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="112" hidden="1" spans="1:3">
+    <row r="132" ht="115.2" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -6112,7 +6160,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="84" hidden="1" spans="1:3">
+    <row r="133" ht="86.4" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -6123,7 +6171,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="98" hidden="1" spans="1:3">
+    <row r="134" ht="100.8" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -6134,7 +6182,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="84" hidden="1" spans="1:3">
+    <row r="135" ht="86.4" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -6145,7 +6193,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="98" hidden="1" spans="1:3">
+    <row r="136" ht="100.8" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -6156,7 +6204,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="98" hidden="1" spans="1:3">
+    <row r="137" ht="100.8" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -6167,7 +6215,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="126" hidden="1" spans="1:3">
+    <row r="138" ht="129.6" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -6178,7 +6226,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="70" hidden="1" spans="1:3">
+    <row r="139" ht="72" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -6189,7 +6237,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="56" hidden="1" spans="1:3">
+    <row r="140" ht="57.6" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -6200,7 +6248,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="84" hidden="1" spans="1:3">
+    <row r="141" ht="86.4" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -6211,7 +6259,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="42" hidden="1" spans="1:3">
+    <row r="142" ht="43.2" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -6222,7 +6270,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="56" hidden="1" spans="1:3">
+    <row r="143" ht="57.6" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -6233,7 +6281,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="56" hidden="1" spans="1:3">
+    <row r="144" ht="57.6" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -6244,7 +6292,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="98" hidden="1" spans="1:3">
+    <row r="145" ht="100.8" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -6255,7 +6303,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="56" hidden="1" spans="1:3">
+    <row r="146" ht="57.6" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -6277,7 +6325,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="210" hidden="1" spans="1:3">
+    <row r="148" ht="216" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -6288,7 +6336,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="154" hidden="1" spans="1:3">
+    <row r="149" ht="158.4" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -6299,7 +6347,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="98" hidden="1" spans="1:3">
+    <row r="150" ht="100.8" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -6310,7 +6358,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="98" hidden="1" spans="1:3">
+    <row r="151" ht="100.8" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -6321,7 +6369,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="126" hidden="1" spans="1:3">
+    <row r="152" ht="129.6" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -6332,7 +6380,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="224" hidden="1" spans="1:3">
+    <row r="153" ht="230.4" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -6343,7 +6391,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="140" hidden="1" spans="1:3">
+    <row r="154" ht="144" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -6354,7 +6402,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="196" hidden="1" spans="1:3">
+    <row r="155" ht="201.6" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -6365,7 +6413,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="112" hidden="1" spans="1:3">
+    <row r="156" ht="115.2" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -6376,7 +6424,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="70" hidden="1" spans="1:3">
+    <row r="157" ht="72" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6387,7 +6435,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="98" hidden="1" spans="1:3">
+    <row r="158" ht="100.8" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6398,7 +6446,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="70" hidden="1" spans="1:3">
+    <row r="159" ht="72" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6409,7 +6457,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="42" hidden="1" spans="1:3">
+    <row r="160" ht="43.2" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6420,7 +6468,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="84" hidden="1" spans="1:3">
+    <row r="161" ht="86.4" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6431,7 +6479,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="112" hidden="1" spans="1:3">
+    <row r="162" ht="115.2" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6442,7 +6490,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="126" spans="1:5">
+    <row r="163" ht="129.6" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6459,7 +6507,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="56" hidden="1" spans="1:3">
+    <row r="164" ht="57.6" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6470,7 +6518,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="126" hidden="1" spans="1:3">
+    <row r="165" ht="129.6" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6481,7 +6529,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="112" hidden="1" spans="1:3">
+    <row r="166" ht="115.2" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6492,7 +6540,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="280" hidden="1" spans="1:5">
+    <row r="167" ht="288" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6503,7 +6551,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="238" hidden="1" spans="1:5">
+    <row r="168" ht="244.8" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6514,7 +6562,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="98" spans="1:3">
+    <row r="169" ht="100.8" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6525,7 +6573,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="112" spans="1:3">
+    <row r="170" ht="115.2" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6536,7 +6584,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" ht="56" spans="1:3">
+    <row r="171" ht="57.6" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>525</v>
       </c>
@@ -6547,7 +6595,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" ht="126" spans="1:3">
+    <row r="172" ht="129.6" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>528</v>
       </c>
@@ -6558,7 +6606,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="173" ht="140" spans="1:3">
+    <row r="173" ht="144" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -6569,7 +6617,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="174" ht="112" spans="1:3">
+    <row r="174" ht="115.2" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -6580,7 +6628,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="175" ht="98" spans="1:3">
+    <row r="175" ht="100.8" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -6591,7 +6639,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" ht="126" spans="1:3">
+    <row r="176" ht="129.6" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>540</v>
       </c>
@@ -6602,7 +6650,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" ht="84" spans="1:3">
+    <row r="177" ht="86.4" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>543</v>
       </c>
@@ -6613,7 +6661,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="178" ht="154" spans="1:3">
+    <row r="178" ht="158.4" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>546</v>
       </c>
@@ -6624,7 +6672,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="179" ht="42" spans="1:3">
+    <row r="179" ht="43.2" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>549</v>
       </c>
@@ -6635,7 +6683,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="180" ht="28" spans="1:3">
+    <row r="180" ht="28.8" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>552</v>
       </c>
@@ -6646,7 +6694,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" ht="56" spans="1:3">
+    <row r="181" ht="57.6" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>555</v>
       </c>
@@ -6657,7 +6705,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="182" ht="126" spans="1:3">
+    <row r="182" ht="129.6" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>558</v>
       </c>
@@ -6668,7 +6716,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="183" ht="154" spans="1:3">
+    <row r="183" ht="158.4" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>561</v>
       </c>
@@ -6679,7 +6727,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="184" ht="126" spans="1:3">
+    <row r="184" ht="129.6" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>564</v>
       </c>
@@ -6690,7 +6738,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="185" ht="98" spans="1:3">
+    <row r="185" ht="100.8" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>567</v>
       </c>
@@ -6701,7 +6749,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="186" ht="112" spans="1:3">
+    <row r="186" ht="115.2" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>570</v>
       </c>
@@ -6712,7 +6760,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" ht="84" spans="1:3">
+    <row r="187" ht="86.4" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>573</v>
       </c>
@@ -6723,7 +6771,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="188" ht="168" spans="1:3">
+    <row r="188" ht="172.8" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>576</v>
       </c>
@@ -6734,7 +6782,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="189" ht="70" spans="1:3">
+    <row r="189" ht="72" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>579</v>
       </c>
@@ -6745,7 +6793,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="190" ht="56" spans="1:3">
+    <row r="190" ht="57.6" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>582</v>
       </c>
@@ -6756,7 +6804,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="191" ht="98" spans="1:3">
+    <row r="191" ht="100.8" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>585</v>
       </c>
@@ -6767,7 +6815,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="192" ht="126" spans="1:3">
+    <row r="192" ht="129.6" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>588</v>
       </c>
@@ -6778,7 +6826,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="193" ht="98" spans="1:3">
+    <row r="193" ht="100.8" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>591</v>
       </c>
@@ -6789,8 +6837,41 @@
         <v>593</v>
       </c>
     </row>
+    <row r="194" ht="187.2" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="195" ht="57.6" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="196" ht="43.2" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E192" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E193" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$196</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="612">
   <si>
     <t>id</t>
   </si>
@@ -3598,6 +3598,67 @@
     <t>你好，Arthur！（你好，亚瑟！）
 这张卡是给你女儿的！祝你平安！</t>
   </si>
+  <si>
+    <t>US-11813524</t>
+  </si>
+  <si>
+    <t>Hello Siyuan!
+My name is Sara, and I live in the Midwestern US (Indiana). I retired 6 years ago from my Marketing Director position to pursue my art practice full-time. I travelled quite a bit with my former job, and I was fortunate to visit China several times (Beijing, Shanghai, Shenzhen and Hong Kong). I love learning about other cultures, and I loved my time in China.
+My husband also enjoys cycling. In fact, he was just out tonight. He dreads the weather changing, because he won't be able to ride until spring.
+I want to say that Xiaoxiao is ADORABLE!!
+Sara</t>
+  </si>
+  <si>
+    <t>你好，思远！
+我叫萨拉，住在美国中西部（印第安纳州）。6年前我从市场总监的职位上退休，开始全职追求我的艺术创作。我之前的工作让我有机会到许多地方旅行，我非常幸运曾多次到访中国（北京、上海、深圳和香港）。我热爱学习不同的文化，也非常喜欢在中国的时光。
+我的丈夫也喜欢骑行。事实上，他今晚刚刚出去骑行。他很害怕天气变化，因为这意味着他要等到春天才能骑车了。
+我想说：笑笑真的太可爱了！！
+萨拉</t>
+  </si>
+  <si>
+    <t>DE-15911318</t>
+  </si>
+  <si>
+    <t>8th of October 2025  
+Schöne Grüße aus dem Elbsandsteingebirge  
+DE-15911378  
+Hello Siyuan,  
+I send you nice greetings from my hometown Dresden.  
+My name is Anke and I’m 60 years old. Your little daughter looks very nice. ❤️❤️  
+I have two granddaughters (3 and 1 years old). They are my sunshine. 😊  
+I work as a teacher and educator at a special school. My students are between 11 and 15 years old.  
+I wish you the best!  
+Sincerely,  
+Anke</t>
+  </si>
+  <si>
+    <t>2025年10月8日  
+来自厄尔兹砂岩山区的美好问候  
+DE-15911378  
+冯思远，你好，  
+我从我的家乡德累斯顿向你发送美好的问候。  
+我的名字是安克，今年60岁。你的女儿看起来非常可爱。❤️❤️  
+我有两个孙女，分别是3岁和1岁。她们是我的阳光。😊  
+我是一名教师和特殊学校的教育工作者。我的学生年龄在11到15岁之间。  
+祝你一切顺利！  
+真诚的，  
+安克</t>
+  </si>
+  <si>
+    <t>SK-361016</t>
+  </si>
+  <si>
+    <t>Hello,  
+greetings from Slovakia, small country in middle Europe.  
+Take care,  
+Milan :)</t>
+  </si>
+  <si>
+    <t>你好，
+来自斯洛伐克的问候，这是一个位于欧洲中部的小国家。
+保重，
+米兰 :)</t>
+  </si>
 </sst>
 </file>
 
@@ -3776,13 +3837,31 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3801,24 +3880,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4644,12 +4705,12 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E194" sqref="E194"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -6870,8 +6931,41 @@
         <v>602</v>
       </c>
     </row>
+    <row r="197" ht="259.2" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="198" ht="244.8" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="199" ht="72" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E193" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E196" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="630">
   <si>
     <t>id</t>
   </si>
@@ -3659,6 +3659,98 @@
 保重，
 米兰 :)</t>
   </si>
+  <si>
+    <t>TW-3918550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello Hong,  
+This is Arthur from Taiwan and with the pleasure of sending a post through the post through the postcrossing.  
+The post was printed by my photo taking ideas and I'm trying to share my photo works to friends around the world.  
+Wish you enjoy it! Happy Postcrossing!
+Arthur @ 2025.10.09  </t>
+  </si>
+  <si>
+    <t>你好，Hong（这里错了，以为我是Hong，其实是“洪安三街的”洪的拼音），  
+我是来自台湾的Arthur，很高兴通过Postcrossing项目寄出这张明信片。  
+这张明信片的图片是由我的拍摄创意设计制作的，我正在尝试将我的摄影作品分享给世界各地的朋友们。  
+希望你喜欢！祝你顺利收片！  
+Arthur（这位英文名也叫Arthur） @ 2025年10月9日</t>
+  </si>
+  <si>
+    <t>MY-702063</t>
+  </si>
+  <si>
+    <t>😊 Smile worth a thousand words! 
+Greetings from Carol ❤️🎵. I'm from Sabah, a popular tourist destination, known for its natural beauty, stunning landscapes, including rainforests, Marine parks diverse culture, and many adventurous activities! I hope you like this postcard, specially selected for you 😊❤️🎵.
+Lankayan Island is a tiny jewel-shaped island located off the northeastern coast of Sabah in the Sulu Sea, 1.5 hours by speed boat from Sandakan. It is in the Sugud Islands Marine Conservation Area (SIMCA). Surrounded by blue-green waters and coral reefs, it is one of Sabah’s top diving spots, with 14 dive sites nearby.</t>
+  </si>
+  <si>
+    <t>😊 笑容胜过千言万语！
+来自Carol的问候❤️🎵。我来自沙巴，这是一个受欢迎的旅游胜地，以其自然美景、壮丽的风景、包括雨林、海洋公园多元文化以及众多冒险活动而闻名！希望你喜欢这张我特别为你挑选的明信片 😊❤️🎵。
+兰卡央岛是一个小巧玲珑、形如宝石的岛屿，位于沙巴东北沿海的苏禄海，从山打根搭乘快艇约1.5小时即可到达。这里属于Sugud岛屿海洋保护区(SIMCA)。周围是蓝绿色的海水和珊瑚礁，它是沙巴首屈一指的潜水圣地之一，附近有14处潜水地点。</t>
+  </si>
+  <si>
+    <t>TW-3924258</t>
+  </si>
+  <si>
+    <t>好棒的腳踏車計劃
+我也很愛騎行，但最近因為工作所以很少再騎腳踏車出門！頭像的女兒很可愛！祝福你們平安健康
+我最近工作也沒有這麼忙，也再思考未來的職涯規劃！祝我們都能一切順利 🙂也祝小曉上學順利，天天開心！</t>
+  </si>
+  <si>
+    <t>好棒的脚踏车计划
+我也很爱骑行，但最近因为工作所以​​很少再骑脚踏车出门！头像的女儿很可爱！祝福你们平安健康
+我最近工作也没有这么忙，也再思考未来的职涯规划！祝我们都能一切顺利 🙂也祝小晓上学顺利，天天开心！</t>
+  </si>
+  <si>
+    <t>DE-15928128</t>
+  </si>
+  <si>
+    <t>Hello Arthur,
+Your little daughter is so cute. I hope you and your daughter like this card. It's an animal and something sporty. I personally love roller skating, inline skating, or ice skating.
+A very well-known German coffee brand is Dallmayr from Munich.
+Best wishes,
+Monika</t>
+  </si>
+  <si>
+    <t>你好，阿瑟：
+你的小女儿真可爱！希望你和你女儿会喜欢这张明信片。它是动物主题，也很有运动气息。我个人非常喜欢轮滑、直排轮滑或者冰上滑冰。
+一个非常著名的德国咖啡品牌是慕尼黑的Dallmayr。
+最诚挚的祝福，
+莫妮卡</t>
+  </si>
+  <si>
+    <t>US-11813515</t>
+  </si>
+  <si>
+    <t>Hi, Arthur! My name is Robyn and I live in Ohio, USA but am originally from the San Francisco Bay Area in California. 
+I have been to Chinatown in SF many times as well as in New York City, Chicago, and Boston. 
+I hope to visit China some day. 
+Much love to you and Xiaoxiao. ❤️ 
+Happy Postcrossing!</t>
+  </si>
+  <si>
+    <t>你好，Arthur！我叫 Robyn，现在住在美国俄亥俄州，但我的家乡是加州旧金山湾区。
+我已经去过旧金山的唐人街很多次，还去过纽约、芝加哥和波士顿。
+希望有一天能去中国旅行。
+祝你和笑笑一切都好！❤️
+祝你享受明信片交流的快乐！</t>
+  </si>
+  <si>
+    <t>US-11813517</t>
+  </si>
+  <si>
+    <t>Greetings from Remer, Minnesota
+One of the best things about living in the country is the wildlife. I have seen turkeys, deer, bear, Eagles, crows, Porcupines and Swans. I am currently reading The Last Detective by Peter Lovesey. It is a great mystery.
+All the best,
+Elizabeth Frick</t>
+  </si>
+  <si>
+    <t>来自明尼苏达州雷默的问候：
+住在乡村最美好的事情之一是这里的野生动物。我见过火鸡、鹿、熊、鹰、乌鸦、豪猪和天鹅。我目前正在阅读彼得·洛夫斯所著的《最后的侦探》。这是一本非常精彩的悬疑小说。
+一切安好，
+伊丽莎白·弗里克</t>
+  </si>
 </sst>
 </file>
 
@@ -3837,25 +3929,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3872,6 +3958,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <charset val="134"/>
@@ -3879,8 +3971,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4705,20 +4797,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
+      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1296296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -5317,7 +5409,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="72" hidden="1" spans="1:3">
+    <row r="53" ht="70" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -5328,7 +5420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="100.8" hidden="1" spans="1:3">
+    <row r="54" ht="98" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -5339,7 +5431,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="115.2" hidden="1" spans="1:3">
+    <row r="55" ht="112" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -5350,7 +5442,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="72" hidden="1" spans="1:3">
+    <row r="56" ht="70" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -5361,7 +5453,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="100.8" hidden="1" spans="1:3">
+    <row r="57" ht="98" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -5372,7 +5464,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="72" hidden="1" spans="1:3">
+    <row r="58" ht="70" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -5383,7 +5475,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="360" hidden="1" spans="1:3">
+    <row r="59" ht="350" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -5394,7 +5486,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="172.8" hidden="1" spans="1:3">
+    <row r="60" ht="168" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -5405,7 +5497,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="72" hidden="1" spans="1:3">
+    <row r="61" ht="70" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -5416,7 +5508,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="100.8" hidden="1" spans="1:3">
+    <row r="62" ht="98" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5427,7 +5519,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="129.6" hidden="1" spans="1:3">
+    <row r="63" ht="126" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5438,7 +5530,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="144" hidden="1" spans="1:3">
+    <row r="64" ht="140" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -5449,7 +5541,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="57.6" hidden="1" spans="1:3">
+    <row r="65" ht="56" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5460,7 +5552,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="259.2" spans="1:5">
+    <row r="66" ht="252" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5477,7 +5569,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="129.6" hidden="1" spans="1:3">
+    <row r="67" ht="126" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5488,7 +5580,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="100.8" hidden="1" spans="1:3">
+    <row r="68" ht="98" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5499,7 +5591,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="158.4" hidden="1" spans="1:3">
+    <row r="69" ht="154" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5510,7 +5602,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="57.6" hidden="1" spans="1:3">
+    <row r="70" ht="56" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5521,7 +5613,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="43.2" hidden="1" spans="1:3">
+    <row r="71" ht="42" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5532,7 +5624,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="100.8" hidden="1" spans="1:3">
+    <row r="72" ht="98" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5543,7 +5635,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="100.8" hidden="1" spans="1:3">
+    <row r="73" ht="98" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5554,7 +5646,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="72" hidden="1" spans="1:3">
+    <row r="74" ht="70" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5565,7 +5657,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="72" hidden="1" spans="1:3">
+    <row r="75" ht="70" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5576,7 +5668,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="43.2" hidden="1" spans="1:3">
+    <row r="76" ht="42" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5587,7 +5679,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="28.8" hidden="1" spans="1:3">
+    <row r="77" ht="28" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5598,7 +5690,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="230.4" hidden="1" spans="1:3">
+    <row r="78" ht="224" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5609,7 +5701,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="57.6" hidden="1" spans="1:3">
+    <row r="79" ht="56" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5620,7 +5712,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="100.8" hidden="1" spans="1:3">
+    <row r="80" ht="98" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5631,7 +5723,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="72" hidden="1" spans="1:3">
+    <row r="81" ht="70" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5642,7 +5734,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="158.4" hidden="1" spans="1:3">
+    <row r="82" ht="154" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5653,7 +5745,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="28.8" hidden="1" spans="1:3">
+    <row r="83" ht="28" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5664,7 +5756,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="115.2" spans="1:5">
+    <row r="84" ht="112" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5681,7 +5773,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="374.4" hidden="1" spans="1:3">
+    <row r="85" ht="364" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5692,7 +5784,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="115.2" hidden="1" spans="1:3">
+    <row r="86" ht="112" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5703,7 +5795,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="57.6" hidden="1" spans="1:3">
+    <row r="87" ht="56" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5714,7 +5806,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="86.4" hidden="1" spans="1:3">
+    <row r="88" ht="84" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5725,7 +5817,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="57.6" hidden="1" spans="1:3">
+    <row r="89" ht="56" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5736,7 +5828,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="115.2" hidden="1" spans="1:3">
+    <row r="90" ht="112" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5747,7 +5839,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="115.2" hidden="1" spans="1:3">
+    <row r="91" ht="112" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5758,7 +5850,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="86.4" hidden="1" spans="1:3">
+    <row r="92" ht="84" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5769,7 +5861,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="86.4" hidden="1" spans="1:3">
+    <row r="93" ht="84" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5780,7 +5872,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="103.2" hidden="1" spans="1:3">
+    <row r="94" ht="100.5" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5791,7 +5883,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="86.4" hidden="1" spans="1:3">
+    <row r="95" ht="84" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5802,7 +5894,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="100.8" hidden="1" spans="1:3">
+    <row r="96" ht="98" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5813,7 +5905,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="57.6" hidden="1" spans="1:3">
+    <row r="97" ht="56" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5824,7 +5916,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="72" hidden="1" spans="1:3">
+    <row r="98" ht="70" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5835,7 +5927,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="86.4" hidden="1" spans="1:3">
+    <row r="99" ht="84" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5846,7 +5938,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="102" hidden="1" spans="1:3">
+    <row r="100" ht="100.5" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5857,7 +5949,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="100.8" hidden="1" spans="1:3">
+    <row r="101" ht="98" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5868,7 +5960,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="72" hidden="1" spans="1:3">
+    <row r="102" ht="70" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5879,7 +5971,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="43.2" hidden="1" spans="1:3">
+    <row r="103" ht="42" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5890,7 +5982,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="57.6" hidden="1" spans="1:3">
+    <row r="104" ht="56" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5901,7 +5993,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="86.4" hidden="1" spans="1:3">
+    <row r="105" ht="84" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5912,7 +6004,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="28.8" hidden="1" spans="1:3">
+    <row r="106" ht="28" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5923,7 +6015,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="72" hidden="1" spans="1:3">
+    <row r="107" ht="70" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5934,7 +6026,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="374.4" spans="1:5">
+    <row r="108" ht="364" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5951,7 +6043,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="100.8" hidden="1" spans="1:3">
+    <row r="109" ht="98" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5962,7 +6054,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="28.8" hidden="1" spans="1:3">
+    <row r="110" ht="28" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5973,7 +6065,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="57.6" hidden="1" spans="1:3">
+    <row r="111" ht="56" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5984,7 +6076,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="100.8" hidden="1" spans="1:3">
+    <row r="112" ht="98" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5995,7 +6087,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="86.4" hidden="1" spans="1:3">
+    <row r="113" ht="84" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -6006,7 +6098,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="43.2" hidden="1" spans="1:3">
+    <row r="114" ht="42" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -6017,7 +6109,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="86.4" hidden="1" spans="1:3">
+    <row r="115" ht="84" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -6028,7 +6120,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="86.4" hidden="1" spans="1:3">
+    <row r="116" ht="84" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -6039,7 +6131,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="115.2" hidden="1" spans="1:3">
+    <row r="117" ht="112" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -6050,7 +6142,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="100.8" hidden="1" spans="1:3">
+    <row r="118" ht="98" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -6061,7 +6153,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="201.6" hidden="1" spans="1:3">
+    <row r="119" ht="196" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -6072,7 +6164,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="129.6" hidden="1" spans="1:3">
+    <row r="120" ht="126" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -6083,7 +6175,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="57.6" hidden="1" spans="1:3">
+    <row r="121" ht="56" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -6094,7 +6186,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="100.8" hidden="1" spans="1:3">
+    <row r="122" ht="98" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -6105,7 +6197,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="100.8" hidden="1" spans="1:3">
+    <row r="123" ht="98" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -6116,7 +6208,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="230.4" spans="1:5">
+    <row r="124" ht="224" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -6133,7 +6225,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="144" hidden="1" spans="1:3">
+    <row r="125" ht="140" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -6144,7 +6236,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="100.8" hidden="1" spans="1:3">
+    <row r="126" ht="98" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -6155,7 +6247,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="129.6" hidden="1" spans="1:3">
+    <row r="127" ht="126" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -6166,7 +6258,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="57.6" hidden="1" spans="1:3">
+    <row r="128" ht="56" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -6177,7 +6269,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="100.8" hidden="1" spans="1:3">
+    <row r="129" ht="98" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -6188,7 +6280,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="72" hidden="1" spans="1:3">
+    <row r="130" ht="70" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -6199,7 +6291,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="115.2" hidden="1" spans="1:3">
+    <row r="131" ht="112" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -6210,7 +6302,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="115.2" hidden="1" spans="1:3">
+    <row r="132" ht="112" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -6221,7 +6313,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="86.4" hidden="1" spans="1:3">
+    <row r="133" ht="84" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -6232,7 +6324,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="100.8" hidden="1" spans="1:3">
+    <row r="134" ht="98" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -6243,7 +6335,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="86.4" hidden="1" spans="1:3">
+    <row r="135" ht="84" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -6254,7 +6346,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="100.8" hidden="1" spans="1:3">
+    <row r="136" ht="98" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -6265,7 +6357,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="100.8" hidden="1" spans="1:3">
+    <row r="137" ht="98" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -6276,7 +6368,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="129.6" hidden="1" spans="1:3">
+    <row r="138" ht="126" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -6287,7 +6379,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="72" hidden="1" spans="1:3">
+    <row r="139" ht="70" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -6298,7 +6390,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="57.6" hidden="1" spans="1:3">
+    <row r="140" ht="56" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -6309,7 +6401,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="86.4" hidden="1" spans="1:3">
+    <row r="141" ht="84" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -6320,7 +6412,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="43.2" hidden="1" spans="1:3">
+    <row r="142" ht="42" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -6331,7 +6423,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="57.6" hidden="1" spans="1:3">
+    <row r="143" ht="56" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -6342,7 +6434,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="57.6" hidden="1" spans="1:3">
+    <row r="144" ht="56" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -6353,7 +6445,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="100.8" hidden="1" spans="1:3">
+    <row r="145" ht="98" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -6364,7 +6456,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="57.6" hidden="1" spans="1:3">
+    <row r="146" ht="56" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -6386,7 +6478,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="216" hidden="1" spans="1:3">
+    <row r="148" ht="210" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -6397,7 +6489,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="158.4" hidden="1" spans="1:3">
+    <row r="149" ht="154" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -6408,7 +6500,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="100.8" hidden="1" spans="1:3">
+    <row r="150" ht="98" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -6419,7 +6511,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="100.8" hidden="1" spans="1:3">
+    <row r="151" ht="98" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -6430,7 +6522,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="129.6" hidden="1" spans="1:3">
+    <row r="152" ht="126" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -6441,7 +6533,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="230.4" hidden="1" spans="1:3">
+    <row r="153" ht="224" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -6452,7 +6544,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="144" hidden="1" spans="1:3">
+    <row r="154" ht="140" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -6463,7 +6555,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="201.6" hidden="1" spans="1:3">
+    <row r="155" ht="196" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -6474,7 +6566,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="115.2" hidden="1" spans="1:3">
+    <row r="156" ht="112" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -6485,7 +6577,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="72" hidden="1" spans="1:3">
+    <row r="157" ht="70" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6496,7 +6588,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="100.8" hidden="1" spans="1:3">
+    <row r="158" ht="98" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6507,7 +6599,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="72" hidden="1" spans="1:3">
+    <row r="159" ht="70" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6518,7 +6610,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="43.2" hidden="1" spans="1:3">
+    <row r="160" ht="42" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6529,7 +6621,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="86.4" hidden="1" spans="1:3">
+    <row r="161" ht="84" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6540,7 +6632,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="115.2" hidden="1" spans="1:3">
+    <row r="162" ht="112" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6551,7 +6643,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="129.6" spans="1:5">
+    <row r="163" ht="126" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6568,7 +6660,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="57.6" hidden="1" spans="1:3">
+    <row r="164" ht="56" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6579,7 +6671,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="129.6" hidden="1" spans="1:3">
+    <row r="165" ht="126" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6590,7 +6682,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="115.2" hidden="1" spans="1:3">
+    <row r="166" ht="112" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6601,7 +6693,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="288" hidden="1" spans="1:5">
+    <row r="167" ht="280" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6612,7 +6704,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="244.8" hidden="1" spans="1:5">
+    <row r="168" ht="238" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6623,7 +6715,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="100.8" spans="1:3">
+    <row r="169" ht="98" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6634,7 +6726,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="115.2" spans="1:3">
+    <row r="170" ht="112" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6645,7 +6737,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" ht="57.6" spans="1:3">
+    <row r="171" ht="56" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>525</v>
       </c>
@@ -6656,7 +6748,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" ht="129.6" spans="1:3">
+    <row r="172" ht="126" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>528</v>
       </c>
@@ -6667,7 +6759,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="173" ht="144" spans="1:3">
+    <row r="173" ht="140" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -6678,7 +6770,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="174" ht="115.2" spans="1:3">
+    <row r="174" ht="112" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -6689,7 +6781,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="175" ht="100.8" spans="1:3">
+    <row r="175" ht="98" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -6700,7 +6792,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" ht="129.6" spans="1:3">
+    <row r="176" ht="126" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>540</v>
       </c>
@@ -6711,7 +6803,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" ht="86.4" spans="1:3">
+    <row r="177" ht="84" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>543</v>
       </c>
@@ -6722,7 +6814,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="178" ht="158.4" spans="1:3">
+    <row r="178" ht="154" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>546</v>
       </c>
@@ -6733,7 +6825,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="179" ht="43.2" spans="1:3">
+    <row r="179" ht="42" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>549</v>
       </c>
@@ -6744,7 +6836,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="180" ht="28.8" spans="1:3">
+    <row r="180" ht="28" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>552</v>
       </c>
@@ -6755,7 +6847,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" ht="57.6" spans="1:3">
+    <row r="181" ht="56" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>555</v>
       </c>
@@ -6766,7 +6858,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="182" ht="129.6" spans="1:3">
+    <row r="182" ht="126" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>558</v>
       </c>
@@ -6777,7 +6869,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="183" ht="158.4" spans="1:3">
+    <row r="183" ht="154" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>561</v>
       </c>
@@ -6788,7 +6880,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="184" ht="129.6" spans="1:3">
+    <row r="184" ht="126" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>564</v>
       </c>
@@ -6799,7 +6891,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="185" ht="100.8" spans="1:3">
+    <row r="185" ht="98" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>567</v>
       </c>
@@ -6810,7 +6902,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="186" ht="115.2" spans="1:3">
+    <row r="186" ht="112" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>570</v>
       </c>
@@ -6821,7 +6913,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" ht="86.4" spans="1:3">
+    <row r="187" ht="84" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>573</v>
       </c>
@@ -6832,7 +6924,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="188" ht="172.8" spans="1:3">
+    <row r="188" ht="168" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>576</v>
       </c>
@@ -6843,7 +6935,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="189" ht="72" spans="1:3">
+    <row r="189" ht="70" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>579</v>
       </c>
@@ -6854,7 +6946,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="190" ht="57.6" spans="1:3">
+    <row r="190" ht="56" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>582</v>
       </c>
@@ -6865,7 +6957,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="191" ht="100.8" spans="1:3">
+    <row r="191" ht="98" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>585</v>
       </c>
@@ -6876,7 +6968,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="192" ht="129.6" spans="1:3">
+    <row r="192" ht="126" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>588</v>
       </c>
@@ -6887,7 +6979,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="193" ht="100.8" spans="1:3">
+    <row r="193" ht="98" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>591</v>
       </c>
@@ -6898,7 +6990,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="194" ht="187.2" spans="1:3">
+    <row r="194" ht="182" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>594</v>
       </c>
@@ -6909,7 +7001,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="195" ht="57.6" spans="1:3">
+    <row r="195" ht="56" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>597</v>
       </c>
@@ -6920,7 +7012,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="196" ht="43.2" spans="1:3">
+    <row r="196" ht="42" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>600</v>
       </c>
@@ -6931,7 +7023,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="197" ht="259.2" spans="1:3">
+    <row r="197" ht="252" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>603</v>
       </c>
@@ -6942,7 +7034,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="198" ht="244.8" spans="1:3">
+    <row r="198" ht="238" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>606</v>
       </c>
@@ -6953,7 +7045,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="199" ht="72" spans="1:3">
+    <row r="199" ht="70" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>609</v>
       </c>
@@ -6964,8 +7056,74 @@
         <v>611</v>
       </c>
     </row>
+    <row r="200" ht="126" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="201" ht="210" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="202" ht="70" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="203" ht="126" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="204" ht="112" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="205" ht="140" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E196" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E199" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="632">
   <si>
     <t>id</t>
   </si>
@@ -3720,6 +3720,17 @@
 莫妮卡</t>
   </si>
   <si>
+    <t>Hello Arthur,
+I'm glad the card arrived. It's understandable that other things are much more important right now. I hope your wife is doing well. That's wonderful news. I wish you and your family all the best. Kind regards
+Minik</t>
+  </si>
+  <si>
+    <t>亲爱的亚瑟，
+很高兴得知明信片已送达。眼下有其他更重要的事情实属正常，希望尊夫人一切安好。这真是个令人欣慰的消息。在此向您和您的家人致以最诚挚的祝福。
+此致
+米尼克</t>
+  </si>
+  <si>
     <t>US-11813515</t>
   </si>
   <si>
@@ -3929,13 +3940,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3958,12 +3963,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <charset val="134"/>
@@ -3971,8 +3970,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4802,15 +4813,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
+      <selection pane="bottomLeft" activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -5409,7 +5420,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="70" hidden="1" spans="1:3">
+    <row r="53" ht="72" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -5420,7 +5431,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="98" hidden="1" spans="1:3">
+    <row r="54" ht="100.8" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -5431,7 +5442,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="112" hidden="1" spans="1:3">
+    <row r="55" ht="115.2" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -5442,7 +5453,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="70" hidden="1" spans="1:3">
+    <row r="56" ht="72" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -5453,7 +5464,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="98" hidden="1" spans="1:3">
+    <row r="57" ht="100.8" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -5464,7 +5475,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="70" hidden="1" spans="1:3">
+    <row r="58" ht="72" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -5475,7 +5486,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="350" hidden="1" spans="1:3">
+    <row r="59" ht="360" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -5486,7 +5497,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="168" hidden="1" spans="1:3">
+    <row r="60" ht="172.8" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -5497,7 +5508,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="70" hidden="1" spans="1:3">
+    <row r="61" ht="72" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -5508,7 +5519,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="98" hidden="1" spans="1:3">
+    <row r="62" ht="100.8" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5519,7 +5530,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="126" hidden="1" spans="1:3">
+    <row r="63" ht="129.6" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5530,7 +5541,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="140" hidden="1" spans="1:3">
+    <row r="64" ht="144" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -5541,7 +5552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="56" hidden="1" spans="1:3">
+    <row r="65" ht="57.6" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5552,7 +5563,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="252" spans="1:5">
+    <row r="66" ht="259.2" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5569,7 +5580,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="126" hidden="1" spans="1:3">
+    <row r="67" ht="129.6" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5580,7 +5591,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="98" hidden="1" spans="1:3">
+    <row r="68" ht="100.8" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5591,7 +5602,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="154" hidden="1" spans="1:3">
+    <row r="69" ht="158.4" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5602,7 +5613,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="56" hidden="1" spans="1:3">
+    <row r="70" ht="57.6" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5613,7 +5624,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="42" hidden="1" spans="1:3">
+    <row r="71" ht="43.2" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5624,7 +5635,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="98" hidden="1" spans="1:3">
+    <row r="72" ht="100.8" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5635,7 +5646,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="98" hidden="1" spans="1:3">
+    <row r="73" ht="100.8" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5646,7 +5657,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="70" hidden="1" spans="1:3">
+    <row r="74" ht="72" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5657,7 +5668,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="70" hidden="1" spans="1:3">
+    <row r="75" ht="72" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5668,7 +5679,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="42" hidden="1" spans="1:3">
+    <row r="76" ht="43.2" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5679,7 +5690,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="28" hidden="1" spans="1:3">
+    <row r="77" ht="28.8" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5690,7 +5701,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="224" hidden="1" spans="1:3">
+    <row r="78" ht="230.4" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5701,7 +5712,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="56" hidden="1" spans="1:3">
+    <row r="79" ht="57.6" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5712,7 +5723,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="98" hidden="1" spans="1:3">
+    <row r="80" ht="100.8" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5723,7 +5734,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="70" hidden="1" spans="1:3">
+    <row r="81" ht="72" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5734,7 +5745,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="154" hidden="1" spans="1:3">
+    <row r="82" ht="158.4" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5745,7 +5756,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="28" hidden="1" spans="1:3">
+    <row r="83" ht="28.8" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5756,7 +5767,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="112" spans="1:5">
+    <row r="84" ht="115.2" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5773,7 +5784,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="364" hidden="1" spans="1:3">
+    <row r="85" ht="374.4" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5784,7 +5795,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="112" hidden="1" spans="1:3">
+    <row r="86" ht="115.2" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5795,7 +5806,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="56" hidden="1" spans="1:3">
+    <row r="87" ht="57.6" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5806,7 +5817,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="84" hidden="1" spans="1:3">
+    <row r="88" ht="86.4" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5817,7 +5828,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="56" hidden="1" spans="1:3">
+    <row r="89" ht="57.6" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5828,7 +5839,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="112" hidden="1" spans="1:3">
+    <row r="90" ht="115.2" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5839,7 +5850,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="112" hidden="1" spans="1:3">
+    <row r="91" ht="115.2" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5850,7 +5861,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="84" hidden="1" spans="1:3">
+    <row r="92" ht="86.4" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5861,7 +5872,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="84" hidden="1" spans="1:3">
+    <row r="93" ht="86.4" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5872,7 +5883,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="100.5" hidden="1" spans="1:3">
+    <row r="94" ht="103.2" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5883,7 +5894,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="84" hidden="1" spans="1:3">
+    <row r="95" ht="86.4" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5894,7 +5905,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="98" hidden="1" spans="1:3">
+    <row r="96" ht="100.8" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5905,7 +5916,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="56" hidden="1" spans="1:3">
+    <row r="97" ht="57.6" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5916,7 +5927,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="70" hidden="1" spans="1:3">
+    <row r="98" ht="72" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5927,7 +5938,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="84" hidden="1" spans="1:3">
+    <row r="99" ht="86.4" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5938,7 +5949,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="100.5" hidden="1" spans="1:3">
+    <row r="100" ht="102" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5949,7 +5960,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="98" hidden="1" spans="1:3">
+    <row r="101" ht="100.8" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5960,7 +5971,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="70" hidden="1" spans="1:3">
+    <row r="102" ht="72" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5971,7 +5982,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="42" hidden="1" spans="1:3">
+    <row r="103" ht="43.2" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5982,7 +5993,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="56" hidden="1" spans="1:3">
+    <row r="104" ht="57.6" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5993,7 +6004,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="84" hidden="1" spans="1:3">
+    <row r="105" ht="86.4" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -6004,7 +6015,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="28" hidden="1" spans="1:3">
+    <row r="106" ht="28.8" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -6015,7 +6026,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="70" hidden="1" spans="1:3">
+    <row r="107" ht="72" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -6026,7 +6037,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="364" spans="1:5">
+    <row r="108" ht="374.4" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -6043,7 +6054,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="98" hidden="1" spans="1:3">
+    <row r="109" ht="100.8" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -6054,7 +6065,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="28" hidden="1" spans="1:3">
+    <row r="110" ht="28.8" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -6065,7 +6076,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="56" hidden="1" spans="1:3">
+    <row r="111" ht="57.6" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -6076,7 +6087,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="98" hidden="1" spans="1:3">
+    <row r="112" ht="100.8" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -6087,7 +6098,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="84" hidden="1" spans="1:3">
+    <row r="113" ht="86.4" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -6098,7 +6109,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="42" hidden="1" spans="1:3">
+    <row r="114" ht="43.2" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -6109,7 +6120,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="84" hidden="1" spans="1:3">
+    <row r="115" ht="86.4" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -6120,7 +6131,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="84" hidden="1" spans="1:3">
+    <row r="116" ht="86.4" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -6131,7 +6142,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="112" hidden="1" spans="1:3">
+    <row r="117" ht="115.2" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -6142,7 +6153,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="98" hidden="1" spans="1:3">
+    <row r="118" ht="100.8" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -6153,7 +6164,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="196" hidden="1" spans="1:3">
+    <row r="119" ht="201.6" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -6164,7 +6175,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="126" hidden="1" spans="1:3">
+    <row r="120" ht="129.6" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -6175,7 +6186,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="56" hidden="1" spans="1:3">
+    <row r="121" ht="57.6" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -6186,7 +6197,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="98" hidden="1" spans="1:3">
+    <row r="122" ht="100.8" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -6197,7 +6208,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="98" hidden="1" spans="1:3">
+    <row r="123" ht="100.8" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -6208,7 +6219,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:5">
+    <row r="124" ht="230.4" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -6225,7 +6236,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="140" hidden="1" spans="1:3">
+    <row r="125" ht="144" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -6236,7 +6247,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="98" hidden="1" spans="1:3">
+    <row r="126" ht="100.8" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -6247,7 +6258,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="126" hidden="1" spans="1:3">
+    <row r="127" ht="129.6" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -6258,7 +6269,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="56" hidden="1" spans="1:3">
+    <row r="128" ht="57.6" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -6269,7 +6280,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="98" hidden="1" spans="1:3">
+    <row r="129" ht="100.8" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -6280,7 +6291,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="70" hidden="1" spans="1:3">
+    <row r="130" ht="72" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -6291,7 +6302,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="112" hidden="1" spans="1:3">
+    <row r="131" ht="115.2" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -6302,7 +6313,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="112" hidden="1" spans="1:3">
+    <row r="132" ht="115.2" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -6313,7 +6324,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="84" hidden="1" spans="1:3">
+    <row r="133" ht="86.4" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -6324,7 +6335,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="98" hidden="1" spans="1:3">
+    <row r="134" ht="100.8" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -6335,7 +6346,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="84" hidden="1" spans="1:3">
+    <row r="135" ht="86.4" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -6346,7 +6357,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="98" hidden="1" spans="1:3">
+    <row r="136" ht="100.8" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -6357,7 +6368,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="98" hidden="1" spans="1:3">
+    <row r="137" ht="100.8" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -6368,7 +6379,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="126" hidden="1" spans="1:3">
+    <row r="138" ht="129.6" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -6379,7 +6390,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="70" hidden="1" spans="1:3">
+    <row r="139" ht="72" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -6390,7 +6401,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="56" hidden="1" spans="1:3">
+    <row r="140" ht="57.6" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -6401,7 +6412,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="84" hidden="1" spans="1:3">
+    <row r="141" ht="86.4" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -6412,7 +6423,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="42" hidden="1" spans="1:3">
+    <row r="142" ht="43.2" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -6423,7 +6434,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="56" hidden="1" spans="1:3">
+    <row r="143" ht="57.6" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -6434,7 +6445,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="56" hidden="1" spans="1:3">
+    <row r="144" ht="57.6" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -6445,7 +6456,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="98" hidden="1" spans="1:3">
+    <row r="145" ht="100.8" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -6456,7 +6467,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="56" hidden="1" spans="1:3">
+    <row r="146" ht="57.6" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -6478,7 +6489,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="210" hidden="1" spans="1:3">
+    <row r="148" ht="216" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -6489,7 +6500,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="154" hidden="1" spans="1:3">
+    <row r="149" ht="158.4" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -6500,7 +6511,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="98" hidden="1" spans="1:3">
+    <row r="150" ht="100.8" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -6511,7 +6522,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="98" hidden="1" spans="1:3">
+    <row r="151" ht="100.8" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -6522,7 +6533,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="126" hidden="1" spans="1:3">
+    <row r="152" ht="129.6" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -6533,7 +6544,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="224" hidden="1" spans="1:3">
+    <row r="153" ht="230.4" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -6544,7 +6555,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="140" hidden="1" spans="1:3">
+    <row r="154" ht="144" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -6555,7 +6566,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="196" hidden="1" spans="1:3">
+    <row r="155" ht="201.6" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -6566,7 +6577,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="112" hidden="1" spans="1:3">
+    <row r="156" ht="115.2" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -6577,7 +6588,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="70" hidden="1" spans="1:3">
+    <row r="157" ht="72" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6588,7 +6599,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="98" hidden="1" spans="1:3">
+    <row r="158" ht="100.8" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6599,7 +6610,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="70" hidden="1" spans="1:3">
+    <row r="159" ht="72" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6610,7 +6621,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="42" hidden="1" spans="1:3">
+    <row r="160" ht="43.2" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6621,7 +6632,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="84" hidden="1" spans="1:3">
+    <row r="161" ht="86.4" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6632,7 +6643,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="112" hidden="1" spans="1:3">
+    <row r="162" ht="115.2" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6643,7 +6654,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="126" spans="1:5">
+    <row r="163" ht="129.6" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6660,7 +6671,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="56" hidden="1" spans="1:3">
+    <row r="164" ht="57.6" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6671,7 +6682,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="126" hidden="1" spans="1:3">
+    <row r="165" ht="129.6" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6682,7 +6693,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="112" hidden="1" spans="1:3">
+    <row r="166" ht="115.2" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6693,7 +6704,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="280" hidden="1" spans="1:5">
+    <row r="167" ht="288" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6704,7 +6715,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="238" hidden="1" spans="1:5">
+    <row r="168" ht="244.8" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6715,7 +6726,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="98" spans="1:3">
+    <row r="169" ht="100.8" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6726,7 +6737,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="112" spans="1:3">
+    <row r="170" ht="115.2" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6737,7 +6748,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" ht="56" spans="1:3">
+    <row r="171" ht="57.6" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>525</v>
       </c>
@@ -6748,7 +6759,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" ht="126" spans="1:3">
+    <row r="172" ht="129.6" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>528</v>
       </c>
@@ -6759,7 +6770,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="173" ht="140" spans="1:3">
+    <row r="173" ht="144" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -6770,7 +6781,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="174" ht="112" spans="1:3">
+    <row r="174" ht="115.2" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -6781,7 +6792,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="175" ht="98" spans="1:3">
+    <row r="175" ht="100.8" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -6792,7 +6803,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" ht="126" spans="1:3">
+    <row r="176" ht="129.6" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>540</v>
       </c>
@@ -6803,7 +6814,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" ht="84" spans="1:3">
+    <row r="177" ht="86.4" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>543</v>
       </c>
@@ -6814,7 +6825,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="178" ht="154" spans="1:3">
+    <row r="178" ht="158.4" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>546</v>
       </c>
@@ -6825,7 +6836,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="179" ht="42" spans="1:3">
+    <row r="179" ht="43.2" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>549</v>
       </c>
@@ -6836,7 +6847,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="180" ht="28" spans="1:3">
+    <row r="180" ht="28.8" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>552</v>
       </c>
@@ -6847,7 +6858,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" ht="56" spans="1:3">
+    <row r="181" ht="57.6" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>555</v>
       </c>
@@ -6858,7 +6869,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="182" ht="126" spans="1:3">
+    <row r="182" ht="129.6" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>558</v>
       </c>
@@ -6869,7 +6880,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="183" ht="154" spans="1:3">
+    <row r="183" ht="158.4" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>561</v>
       </c>
@@ -6880,7 +6891,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="184" ht="126" spans="1:3">
+    <row r="184" ht="129.6" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>564</v>
       </c>
@@ -6891,7 +6902,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="185" ht="98" spans="1:3">
+    <row r="185" ht="100.8" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>567</v>
       </c>
@@ -6902,7 +6913,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="186" ht="112" spans="1:3">
+    <row r="186" ht="115.2" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>570</v>
       </c>
@@ -6913,7 +6924,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" ht="84" spans="1:3">
+    <row r="187" ht="86.4" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>573</v>
       </c>
@@ -6924,7 +6935,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="188" ht="168" spans="1:3">
+    <row r="188" ht="172.8" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>576</v>
       </c>
@@ -6935,7 +6946,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="189" ht="70" spans="1:3">
+    <row r="189" ht="72" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>579</v>
       </c>
@@ -6946,7 +6957,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="190" ht="56" spans="1:3">
+    <row r="190" ht="57.6" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>582</v>
       </c>
@@ -6957,7 +6968,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="191" ht="98" spans="1:3">
+    <row r="191" ht="100.8" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>585</v>
       </c>
@@ -6968,7 +6979,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="192" ht="126" spans="1:3">
+    <row r="192" ht="129.6" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>588</v>
       </c>
@@ -6979,7 +6990,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="193" ht="98" spans="1:3">
+    <row r="193" ht="100.8" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>591</v>
       </c>
@@ -6990,7 +7001,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="194" ht="182" spans="1:3">
+    <row r="194" ht="187.2" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>594</v>
       </c>
@@ -7001,7 +7012,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="195" ht="56" spans="1:3">
+    <row r="195" ht="57.6" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>597</v>
       </c>
@@ -7012,7 +7023,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="196" ht="42" spans="1:3">
+    <row r="196" ht="43.2" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>600</v>
       </c>
@@ -7023,7 +7034,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="197" ht="252" spans="1:3">
+    <row r="197" ht="259.2" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>603</v>
       </c>
@@ -7034,7 +7045,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="198" ht="238" spans="1:3">
+    <row r="198" ht="244.8" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>606</v>
       </c>
@@ -7045,7 +7056,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="199" ht="70" spans="1:3">
+    <row r="199" ht="72" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>609</v>
       </c>
@@ -7056,7 +7067,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="200" ht="126" spans="1:3">
+    <row r="200" ht="129.6" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>612</v>
       </c>
@@ -7067,7 +7078,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="201" ht="210" spans="1:3">
+    <row r="201" ht="216" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>615</v>
       </c>
@@ -7078,7 +7089,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="202" ht="70" spans="1:3">
+    <row r="202" ht="72" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>618</v>
       </c>
@@ -7089,7 +7100,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="203" ht="126" spans="1:3">
+    <row r="203" ht="144" spans="1:5">
       <c r="A203" s="1" t="s">
         <v>621</v>
       </c>
@@ -7099,31 +7110,37 @@
       <c r="C203" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="204" ht="112" spans="1:3">
+      <c r="D203" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="204" ht="115.2" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="205" ht="140" spans="1:3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="205" ht="144" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E199" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E205" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="638">
   <si>
     <t>id</t>
   </si>
@@ -3761,6 +3761,36 @@
 住在乡村最美好的事情之一是这里的野生动物。我见过火鸡、鹿、熊、鹰、乌鸦、豪猪和天鹅。我目前正在阅读彼得·洛夫斯所著的《最后的侦探》。这是一本非常精彩的悬疑小说。
 一切安好，
 伊丽莎白·弗里克</t>
+  </si>
+  <si>
+    <t>US-11813528</t>
+  </si>
+  <si>
+    <t>Hello from Oregon, USA! I hope your daughter enjoys these animals. Yes, she’s adorable! I’ve only seen the raccoon in the wild org in my yard. They live in the neighborhoods and go in the sewers, they are streets for raccoons! I am retired and spend time gardening, reading mysteries, and blogging. 'https://thisandthatablog.blogspot.com' 
+I have a dog and a cat. And 3 grown children. Good luck cyclings, Lisa</t>
+  </si>
+  <si>
+    <t>来自美国俄勒冈州的问候！希望你女儿喜欢这些动物。是的，她太可爱了！我只在野外或自家院子里见过浣熊。它们生活在居民区，会去下水道，那里简直就是浣熊的乐园！我已经退休了，现在喜欢园艺、读推理小说和写博客。我的博客是：https://thisandthatablog.blogspot.com
+我养了一条狗和一只猫，还有三个已经成年的孩子。祝你骑行顺利，丽莎。</t>
+  </si>
+  <si>
+    <t>DE-15911341</t>
+  </si>
+  <si>
+    <t>Hello Arthur,  
+My name is Olga.  
+I'm originally from Moldova, but I've been living in Berlin, Germany for the last 8 years. I like this city because it's so free. This autumn's been really lovely.  
+Greetings to your beautiful Xiaoxiao :)  
+Wish you all the best!  
+26.10.2025</t>
+  </si>
+  <si>
+    <t>你好，Arthur：  
+我的名字是Olga。  
+我来自摩尔多瓦，但过去8年一直居住在德国柏林。我喜欢这个城市，因为它非常自由。今年的秋天真的很可爱。  
+向你美丽的笑笑问好 :)  
+祝一切顺利！  
+2025年10月26日</t>
   </si>
 </sst>
 </file>
@@ -4808,12 +4838,12 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E205"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E203" sqref="E203"/>
+      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7137,6 +7167,28 @@
       </c>
       <c r="C205" s="2" t="s">
         <v>631</v>
+      </c>
+    </row>
+    <row r="206" ht="129.6" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="207" ht="129.6" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="641">
   <si>
     <t>id</t>
   </si>
@@ -3792,6 +3792,15 @@
 祝一切顺利！  
 2025年10月26日</t>
   </si>
+  <si>
+    <t>US-11847931</t>
+  </si>
+  <si>
+    <t>Today we took The Dogs to the pumpkin patch &amp; veggie stand. It was a beautiful day. We love AUTUMN.  ❤️Merice &amp; Dogs - Ziggy &amp; Mojo</t>
+  </si>
+  <si>
+    <t>今天我们带狗狗们去了南瓜园和蔬菜摊。天气真好！我们爱秋天！❤️梅丽丝和狗狗们——齐格和莫乔</t>
+  </si>
 </sst>
 </file>
 
@@ -3976,7 +3985,31 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3988,31 +4021,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4838,12 +4847,12 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
+      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7191,8 +7200,19 @@
         <v>637</v>
       </c>
     </row>
+    <row r="208" ht="43.2" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E205" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E207" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="644">
   <si>
     <t>id</t>
   </si>
@@ -3801,6 +3801,27 @@
   <si>
     <t>今天我们带狗狗们去了南瓜园和蔬菜摊。天气真好！我们爱秋天！❤️梅丽丝和狗狗们——齐格和莫乔</t>
   </si>
+  <si>
+    <t>AT-832307</t>
+  </si>
+  <si>
+    <t>(my native speak is GERMAN)
+Hallo Arthur,
+ich sende dir und deiner Familie wunderschöne Grüße aus Österreich. 
+"Leben ist nicht genug", sagte der Schmetterling. Sonnenschein, Freiheit und eine kleine Blume muss man auch haben."
+- Hans Christian Anderson
+Das deine Tochter immer von Sonnenschein umgeben ist. 😊
+Liebe Grüße Andrea aus Graz.</t>
+  </si>
+  <si>
+    <t>（我的母语是德语）
+你好，Arthur，
+我向你和你的家人从奥地利送上美好的问候。
+“生活不仅仅是生存”，蝴蝶曾说。阳光、自由和一朵小花也是必不可少的。”
+——汉斯·克里斯蒂安·安徒生
+愿你的女儿永远被阳光围绕。 😊
+来自格拉茨的亲切问候，Andrea。</t>
+  </si>
 </sst>
 </file>
 
@@ -3984,8 +4005,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3997,20 +4018,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4020,8 +4041,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4847,12 +4868,12 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
+      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7211,8 +7232,19 @@
         <v>640</v>
       </c>
     </row>
+    <row r="209" ht="216" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E207" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E208" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$209</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="648">
   <si>
     <t>id</t>
   </si>
@@ -3822,6 +3822,26 @@
 愿你的女儿永远被阳光围绕。 😊
 来自格拉茨的亲切问候，Andrea。</t>
   </si>
+  <si>
+    <t>RS-104911</t>
+  </si>
+  <si>
+    <t>Поздрав из Србије  
+SERBS AND CHINESE FRIENDS  
+WELCOME TO SERBIA!  
+STEFAN
+05.12.2025</t>
+  </si>
+  <si>
+    <t>来自塞尔维亚的问候  
+塞尔维亚人和中国朋友  
+欢迎来到塞尔维亚！  
+斯特凡
+2025年12月5日</t>
+  </si>
+  <si>
+    <t>Hi, card was sent 12.05. which means twelvth of december :)</t>
+  </si>
 </sst>
 </file>
 
@@ -4000,25 +4020,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4030,8 +4038,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4042,7 +4050,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4868,12 +4888,12 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C209" sqref="C209"/>
+      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7243,8 +7263,22 @@
         <v>643</v>
       </c>
     </row>
+    <row r="210" ht="72" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E208" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E209" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcard_story.xlsx
+++ b/template/postcard_story.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$210</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="651">
   <si>
     <t>id</t>
   </si>
@@ -3842,6 +3842,19 @@
   <si>
     <t>Hi, card was sent 12.05. which means twelvth of december :)</t>
   </si>
+  <si>
+    <t>IT-802392</t>
+  </si>
+  <si>
+    <t>Across the world, this card took flight to bring you joy and warm your night. A little note, a stamp, a smile connecting hearts across each mile.
+Have a nice day.
+Giuseppe</t>
+  </si>
+  <si>
+    <t>这张卡片跨越重洋，只为给你带来快乐，温暖你的夜晚。一张小小的纸条，一枚邮票，一个微笑，跨越千山万水，连接着彼此的心。
+祝你今天愉快。
+朱塞佩</t>
+  </si>
 </sst>
 </file>
 
@@ -4020,19 +4033,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4049,6 +4056,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -4056,13 +4069,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4888,12 +4901,12 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B216" sqref="B216"/>
+      <selection pane="bottomLeft" activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7277,8 +7290,19 @@
         <v>647</v>
       </c>
     </row>
+    <row r="211" ht="100.8" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E209" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E210" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>
